--- a/信息素养/题库(已整理).xlsx
+++ b/信息素养/题库(已整理).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\系统\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EA4193-791A-405C-830D-C2B864437702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="19" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1291">
   <si>
     <t>题</t>
   </si>
@@ -1103,6 +1099,1332 @@
     <t>该文提出实施以提升人力资本为核心的倍增战略</t>
   </si>
   <si>
+    <t>在参考文献“皮炎霜的质量控制与临床应用[J].崔军.中医外治杂志.1999(06):02-03.”中，“02-03”表示____。</t>
+  </si>
+  <si>
+    <t>主要责任者</t>
+  </si>
+  <si>
+    <t>题名</t>
+  </si>
+  <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>页码</t>
+  </si>
+  <si>
+    <t>在《中文科技期刊数据库》中，《农业现代化研究》杂志，被引量接近多少</t>
+  </si>
+  <si>
+    <t>利用中国知网（CNKI）检索，南京农业大学的赵志刚老师2020年参加了什么会议：</t>
+  </si>
+  <si>
+    <t>第十九届中国作物学会学术年会</t>
+  </si>
+  <si>
+    <t>现代分子植物育种与粮食安全研讨会</t>
+  </si>
+  <si>
+    <t>中国化学会第一届农业化学学术讨论会</t>
+  </si>
+  <si>
+    <t>江西省作物学会2020年学术年会</t>
+  </si>
+  <si>
+    <t>以下哪种刊物不是2017版北大核心期刊：</t>
+  </si>
+  <si>
+    <t>热带地理</t>
+  </si>
+  <si>
+    <t>地理科学进展</t>
+  </si>
+  <si>
+    <t>地理信息世界</t>
+  </si>
+  <si>
+    <t>人文地理</t>
+  </si>
+  <si>
+    <t>至今为止，“全民阅读”已经连续（）写入政府工作报告。</t>
+  </si>
+  <si>
+    <t>八次</t>
+  </si>
+  <si>
+    <t>九次</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>十一</t>
+  </si>
+  <si>
+    <t>以下哪个期刊是中国知网的独家资源？</t>
+  </si>
+  <si>
+    <t>成都中医药大学学报</t>
+  </si>
+  <si>
+    <t>Chinese Herbal Medicines 中草药(英文版)</t>
+  </si>
+  <si>
+    <t>武汉中医药大学学报</t>
+  </si>
+  <si>
+    <t>Chinese Journal of Natural Medicines</t>
+  </si>
+  <si>
+    <t>2022年8月22日，公安部交通管理科学研究所就引爆网络的“红绿灯乌龙”事件正式辟谣，称现行红绿灯方面的国家标准是2017年7月1日开始实施的《道路交通信号灯设置与安装规范》， 不存在2022年实施的“新国标”。关于这项国家标准，以下信息正确的是：</t>
+  </si>
+  <si>
+    <t>它的标准号为：GB 14886-2016</t>
+  </si>
+  <si>
+    <t>它的发布单位是中华人民共和国公安部</t>
+  </si>
+  <si>
+    <t>它是一项非强制性国家标准</t>
+  </si>
+  <si>
+    <t>它在2021年根据需要进行过修订</t>
+  </si>
+  <si>
+    <t>关于维普中文期刊服务平台的检索规则，说法正确的是</t>
+  </si>
+  <si>
+    <t>在检索框中支持布尔逻辑运算，直接输入检索符即可</t>
+  </si>
+  <si>
+    <t>关键词的标识符为TY</t>
+  </si>
+  <si>
+    <t>可通过中文全角()进一步提高优先级</t>
+  </si>
+  <si>
+    <t>支持精确检索</t>
+  </si>
+  <si>
+    <t>以下哪些不是术语在线的来源数据库</t>
+  </si>
+  <si>
+    <t>重大国家战略常用关键词表</t>
+  </si>
+  <si>
+    <t>审定公布名词数据库</t>
+  </si>
+  <si>
+    <t>大数据多语种术语百科</t>
+  </si>
+  <si>
+    <t>海峡名词数据库</t>
+  </si>
+  <si>
+    <t>在某英文检索系统中输入 micro*mics 作为检索词，这属于截词检索中的（　）。</t>
+  </si>
+  <si>
+    <t>前截词</t>
+  </si>
+  <si>
+    <t>中截词</t>
+  </si>
+  <si>
+    <t>后截词</t>
+  </si>
+  <si>
+    <t>全截词</t>
+  </si>
+  <si>
+    <t>知网数据库的“专业检索”方式中，下列哪个检索字段代表“作者”（ ）。</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>根据2019年7月2日国家互联网信息办公室、国家发展和改革委员会、工业和信息化部、财政部共同发布的《云计算服务安全评估办法》，哪项不是云计算服务安全评估重点评估的内容？</t>
+  </si>
+  <si>
+    <t>云平台管理运营者（以下简称“云服务商”）的征信、经营状况等基本情况</t>
+  </si>
+  <si>
+    <t>云服务商人员背景及稳定性，特别是能够访问客户数据、能够收集相关元数据的人员</t>
+  </si>
+  <si>
+    <t>云平台技术、产品和服务供应链安全情况</t>
+  </si>
+  <si>
+    <t>云平台的客户界面是否已经使用中文字体及说明书</t>
+  </si>
+  <si>
+    <t>在搜索引擎的搜索框中输入“ 英语四级考试 site:pan.baidu.com” ,请问检索意图是什么？</t>
+  </si>
+  <si>
+    <t>查找网址中含有英语四级考试的内容</t>
+  </si>
+  <si>
+    <t>查找英语四级考试方面的ppt</t>
+  </si>
+  <si>
+    <t>查找标题 中含有英语四级考试的内容</t>
+  </si>
+  <si>
+    <t>在百度网盘中搜索英语四级考试方面的资源</t>
+  </si>
+  <si>
+    <t>为了对转基因农作物及其产品进行更规范的管理，保护消费者知情权和选择权，需要对转基因产品进行检测，以下哪个不是中国计量科学研究院研发的已经获批的农业转基因检测标准物质？</t>
+  </si>
+  <si>
+    <t>转基因 BT63 水稻种子粉基体标准物质</t>
+  </si>
+  <si>
+    <t>转基因水稻 BT63 质粒分子标准物质</t>
+  </si>
+  <si>
+    <t>转基因大豆 MON89788 质粒分子标准物质</t>
+  </si>
+  <si>
+    <t>转基因水稻 G6H1 基因组 DNA 标准物质</t>
+  </si>
+  <si>
+    <t>中国共产党新闻网，不可以用哪种语言浏览？</t>
+  </si>
+  <si>
+    <t>中文简体</t>
+  </si>
+  <si>
+    <t>朝鲜语</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>日本语</t>
+  </si>
+  <si>
+    <t>DOI: 10.13781/j.cnki.1007-9556.2022.06.005来源的期刊其中的2022第6期题 名中包含“一带一路”的文献内容里的研究设计中变量选择与度量不包含的是：</t>
+  </si>
+  <si>
+    <t>自变量</t>
+  </si>
+  <si>
+    <t>中介变量</t>
+  </si>
+  <si>
+    <t>因变量</t>
+  </si>
+  <si>
+    <t>他变量</t>
+  </si>
+  <si>
+    <t>下面哪一种不是垂直搜索引擎（ ）。</t>
+  </si>
+  <si>
+    <t>以下不属于经济类事实、数值型数据库的是___。</t>
+  </si>
+  <si>
+    <t>EPS数据平台</t>
+  </si>
+  <si>
+    <t>北大法意</t>
+  </si>
+  <si>
+    <t>国泰安</t>
+  </si>
+  <si>
+    <t>锐思</t>
+  </si>
+  <si>
+    <t>《四级英语词汇》这本图书的分类号可能是______。</t>
+  </si>
+  <si>
+    <t>G636.33</t>
+  </si>
+  <si>
+    <t>J216.2</t>
+  </si>
+  <si>
+    <t>I247.4</t>
+  </si>
+  <si>
+    <t>H319</t>
+  </si>
+  <si>
+    <t>intitle:www.zhihu.com 儿童书桌</t>
+  </si>
+  <si>
+    <t>以下哪个期刊不是由湖南大学主办的？</t>
+  </si>
+  <si>
+    <t>财经理论与实践</t>
+  </si>
+  <si>
+    <t>文化软实力</t>
+  </si>
+  <si>
+    <t>创业邦</t>
+  </si>
+  <si>
+    <t>档案学通讯</t>
+  </si>
+  <si>
+    <t>小明在利用中国知网期刊数据库进行检索时，共检索出文献400篇，其中与其主题 相关的有300篇，未检索出的相关文献为150篇，则以下说法正确的是</t>
+  </si>
+  <si>
+    <t>查全率为75%</t>
+  </si>
+  <si>
+    <t>查准率为66%</t>
+  </si>
+  <si>
+    <t>查全率为55%</t>
+  </si>
+  <si>
+    <t>查全率为66.7%</t>
+  </si>
+  <si>
+    <t>以下哪个期刊有曾用名？</t>
+  </si>
+  <si>
+    <t>当代艺术</t>
+  </si>
+  <si>
+    <t>创意与设计</t>
+  </si>
+  <si>
+    <t>海峡人文学刊</t>
+  </si>
+  <si>
+    <t>大众文艺</t>
+  </si>
+  <si>
+    <t>在百度搜索引擎中，检索国家卫生健康委员会网站上发布的卫生标准信息，可以输入（）。</t>
+  </si>
+  <si>
+    <t>卫生标准 and:www.nhc.gov.cn/</t>
+  </si>
+  <si>
+    <t>卫生标准 site:www.nhc.gov.cn/</t>
+  </si>
+  <si>
+    <t>卫生标准 www.www.nhc.gov.cn/</t>
+  </si>
+  <si>
+    <t>卫生标准 intitle:www.nhc.gov.cn/</t>
+  </si>
+  <si>
+    <t>《利用基质胶阻断门静脉建立改良ALPPS手术小鼠模型》，以下选项哪一个是其参考文献？</t>
+  </si>
+  <si>
+    <t>B超检测小鼠正常肝脾的声像图及方法[J]. 黄大斌,周玲. 中国中西医结合影像学杂志. 2004(03)</t>
+  </si>
+  <si>
+    <t>糖尿病大鼠皮下基质胶血管生成模型的构建[J]. 李沁芸,邹和琴,杨亦彬. 医学研究生学报. 2016(09)</t>
+  </si>
+  <si>
+    <t>局部应用基质胶提高去势大鼠钛植入体稳定性的研究[J]. 张海波,高莺,连博,王璨. 中华实验外科杂志. 2015(04)</t>
+  </si>
+  <si>
+    <t>辛二酰苯胺氧肟酸对血管生成的抑制作用及其机制[J]. 王娜娜,陈粼波,张力,姜蓉,陈黎,沈宜. 细胞与分子免疫学杂志. 2014(03)</t>
+  </si>
+  <si>
+    <t>袁隆平是杂交水稻研究领域的开创者和带头人，致力于杂交水稻技术的研究、应用与推广，发明“三系法”籼型杂交水稻，成功研究出“两系法”杂交水稻，创建了超级杂交稻技术体系 。学位年度截止到2020年，在中国知网中检索与“杂交水稻”相关的文献，检索区域：博硕士论文库；检索词：杂交水稻、种子（两词为并含关系）；检索字段：全文，其他条件不限，根据检索结果，下载量最高的文章授予年度为（）</t>
+  </si>
+  <si>
+    <t>（）将计算机定义为“采用电子器件和电路，配以相关设备和软件而组成的自动解算装置。除特别指明是模拟计算机外，电子计算机一般均特指电子数字计算机。”</t>
+  </si>
+  <si>
+    <t>《资源科学技术名词》</t>
+  </si>
+  <si>
+    <t>《计算机科学技术名词 》 (第三版)</t>
+  </si>
+  <si>
+    <t>《生物物理学名词》 (第二版)</t>
+  </si>
+  <si>
+    <t>《通信科学技术名词》</t>
+  </si>
+  <si>
+    <t>以下几种密码设置，你觉得最安全的是？</t>
+  </si>
+  <si>
+    <t>689542#Ab</t>
+  </si>
+  <si>
+    <t>89745OP</t>
+  </si>
+  <si>
+    <t>8888a#</t>
+  </si>
+  <si>
+    <t>为落实人才兴教战略，全面提升湖南湘江新区教育品牌，2023年湘江新区面向社会大力公开招聘教师，根据官方公告，此次招聘的人员数量是：</t>
+  </si>
+  <si>
+    <t>CNKI首页进入高级检索，选择会议，“浅谈新修改的《中华人民共和国食品安全法》——以经济法的价值为研究视角”一文是发表在什么会议上的？</t>
+  </si>
+  <si>
+    <t>第十一届中国软科学学术年会</t>
+  </si>
+  <si>
+    <t>第十二届中国食品科学技术年会</t>
+  </si>
+  <si>
+    <t>2015年营养食品与健康论坛</t>
+  </si>
+  <si>
+    <t>第九届中国软科学学术年会</t>
+  </si>
+  <si>
+    <t>关于工业增长速度，说法错误的是？</t>
+  </si>
+  <si>
+    <t>北京市2021年6月工业增加值同比增长45.5%</t>
+  </si>
+  <si>
+    <t>山西省2021年6月工业增加值累计增长15.9%</t>
+  </si>
+  <si>
+    <t>辽宁省2021年6月工业增加值累计增长11%</t>
+  </si>
+  <si>
+    <t>上海市2021年6月工业增加值同比增长4%</t>
+  </si>
+  <si>
+    <t>国家社科基金项目《中国古代体育项目志（少数民族部分）》，其项目负责人？</t>
+  </si>
+  <si>
+    <t>曹迎春</t>
+  </si>
+  <si>
+    <t>丁海波</t>
+  </si>
+  <si>
+    <t>李航</t>
+  </si>
+  <si>
+    <t>曹丽</t>
+  </si>
+  <si>
+    <t>在中国知网数据库检索人工智能方面的文献时，可以使用“人工智能”作为检索词，其选择的检索字段为（）。</t>
+  </si>
+  <si>
+    <t>分类检索</t>
+  </si>
+  <si>
+    <t>作者检索</t>
+  </si>
+  <si>
+    <t>单位检索</t>
+  </si>
+  <si>
+    <t>关键词检索</t>
+  </si>
+  <si>
+    <t>你在许多网站上读到了一系列关于某个主题 的不同方法的摘要。你没有复制和粘贴，而是用你自己的话把摘要写到你的作业中。你没有在你的作业中提到网站的来源。</t>
+  </si>
+  <si>
+    <t>你有一项作业要写，你要为此做研究。在写作业的过程中，你会突然想到一种看待问题 的新方法，你觉得这是独一无二的。你提出了这个“独特”的观点，并提交了作业。然而，一两天后你会发现，几年前已经有人发表与你类似的观点。</t>
+  </si>
+  <si>
+    <t>出自唐代诗人杜甫诗歌中的诗句是（ ）。</t>
+  </si>
+  <si>
+    <t>竹外桃花三两枝，春江水暖鸭先知。</t>
+  </si>
+  <si>
+    <t>千里莺啼绿映红，水村山郭酒旗风。</t>
+  </si>
+  <si>
+    <t>岐王宅里寻常见，崔九堂前几度闻。</t>
+  </si>
+  <si>
+    <t>夜阑卧听风吹雨，铁马冰河入梦来</t>
+  </si>
+  <si>
+    <t>基于TBL改良PBL教学法在骨伤科临床见习教学中的应用研究[J]. 何海军,钮艳芳. 教育现代化. 2019(55)</t>
+  </si>
+  <si>
+    <t>TBL教学法在高职《护士职业基本技术》教学中应用的效果评价[J]. 蒙桂琴. 中国实用护理杂志. 2013(22)</t>
+  </si>
+  <si>
+    <t>TBL教学法对医学生交流恐惧影响的研究[J]. 徐麟皓,毕艳丽,陈健. 中国高等医学教育. 2021(02)</t>
+  </si>
+  <si>
+    <t>TBL教学方法在医学课程中的应用[J]. 符强. 科技创新导报. 2019(24)</t>
+  </si>
+  <si>
+    <t>“问君能有几多愁？恰似一江春水向东流。”是南唐最后一位国君李煜的作品，下列不属于他的作品的是？</t>
+  </si>
+  <si>
+    <t>《浣溪沙》</t>
+  </si>
+  <si>
+    <t>《相见欢·无言独上西楼》</t>
+  </si>
+  <si>
+    <t>《清平乐·别来春半》</t>
+  </si>
+  <si>
+    <t>《蝶恋花·暖雨晴风初破冻》</t>
+  </si>
+  <si>
+    <t>在2021“广佛同城共读”活动中，获得特等奖的是</t>
+  </si>
+  <si>
+    <t>黄瑶</t>
+  </si>
+  <si>
+    <t>黄臻楷</t>
+  </si>
+  <si>
+    <t>汪翠华</t>
+  </si>
+  <si>
+    <t>付珍珍</t>
+  </si>
+  <si>
+    <t>在cnki中，清华大学2011年授予了多少位博士</t>
+  </si>
+  <si>
+    <t>布尔逻辑表达式：在职人员NOT（教师AND青年）的检索结果是（）</t>
+  </si>
+  <si>
+    <t>.除了教师以外的青年在职人员</t>
+  </si>
+  <si>
+    <t>除了青年教师以外的在职人员</t>
+  </si>
+  <si>
+    <t>除了青年以外的在职教师</t>
+  </si>
+  <si>
+    <t>在职人员和青年教师</t>
+  </si>
+  <si>
+    <t>要利用百度检索标题中含有关键词“粤港澳大湾区”的相关信息，在百度搜索框里输入的正确检索式应该是</t>
+  </si>
+  <si>
+    <t>intitle:粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>site:粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>inurl:粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>在中国知网报纸数据库中检索网络环境治理相关的文章，检索词“网络环境”并含“治理”，检索字段“题名”，精确检索，报纸日期截止到2021年8月31日，不包含非学术文献，其他条件不变，检索到的文献中，下载量最多的文章，来源报纸的主办单位是？</t>
+  </si>
+  <si>
+    <t>中共中央纪律检查委员会</t>
+  </si>
+  <si>
+    <t>中央宣传部</t>
+  </si>
+  <si>
+    <t>中国共产党中央委员会</t>
+  </si>
+  <si>
+    <t>国家发改委</t>
+  </si>
+  <si>
+    <t>以下NSTL服务站建站时间最早的是：</t>
+  </si>
+  <si>
+    <t>济南服务站</t>
+  </si>
+  <si>
+    <t>银川服务站</t>
+  </si>
+  <si>
+    <t>合肥服务站</t>
+  </si>
+  <si>
+    <t>青岛服务站</t>
+  </si>
+  <si>
+    <t>胆清片用于治疗慢性胆囊炎肝胆湿热症，具有疗效可靠、作用迅速的特点，是国家的中药保护品种。请问该产品的保护编号为：</t>
+  </si>
+  <si>
+    <t>ZYB2072010065</t>
+  </si>
+  <si>
+    <t>Z19980003</t>
+  </si>
+  <si>
+    <t>ZYB2072010066</t>
+  </si>
+  <si>
+    <t>Z20080258</t>
+  </si>
+  <si>
+    <t>关于第四次全国经济普查，说法正确的是？</t>
+  </si>
+  <si>
+    <t>第四次全国经济普查的标准时点为2017年12月31日，时期资料为2017年度</t>
+  </si>
+  <si>
+    <t>对部分数据由于计量单位取舍不同或四舍五入而产生的误差数均未作机械调整</t>
+  </si>
+  <si>
+    <t>每卷后不附有该卷详细的指标解释</t>
+  </si>
+  <si>
+    <t>表中空格仅表示该项统计指标数值为零</t>
+  </si>
+  <si>
+    <t>发现·地球是万方数据和（）强强联合打造的地球与环境科学一站式知识发现平台。</t>
+  </si>
+  <si>
+    <t>高等教育出版社</t>
+  </si>
+  <si>
+    <t>科学出版社</t>
+  </si>
+  <si>
+    <t>科技出版社</t>
+  </si>
+  <si>
+    <t>地球环境出版社</t>
+  </si>
+  <si>
+    <t>2022年9月进出口商品贸易进出口总值（人民币值）为</t>
+  </si>
+  <si>
+    <t>查找“关于黄瓜栽培方面”的资料，检索式最准确的为</t>
+  </si>
+  <si>
+    <t>（黄瓜and青瓜）or栽培</t>
+  </si>
+  <si>
+    <t>（黄瓜and青瓜）and栽培</t>
+  </si>
+  <si>
+    <t>（黄瓜or青瓜）or栽培</t>
+  </si>
+  <si>
+    <t>（黄瓜or青瓜）and栽培</t>
+  </si>
+  <si>
+    <t>我国的标准代号为（ ）。</t>
+  </si>
+  <si>
+    <t>ANSI</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>JIS</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>下面哪一种不是垂直搜索引擎（  ）。</t>
+  </si>
+  <si>
+    <t>二手房交易前，买卖双方都会在网上查询相关信息。在百度指数检索中，关于二手房的检索，2021年2月15日-2月21日间，相关词搜索热度最高的是？</t>
+  </si>
+  <si>
+    <t>房天下</t>
+  </si>
+  <si>
+    <t>搜房网</t>
+  </si>
+  <si>
+    <t>安居客</t>
+  </si>
+  <si>
+    <t>贝壳网</t>
+  </si>
+  <si>
+    <t>根据《中国图书馆图书分类法》简表，G4的类名是</t>
+  </si>
+  <si>
+    <t>语言、文字</t>
+  </si>
+  <si>
+    <t>文化理论</t>
+  </si>
+  <si>
+    <t>科学、科学研究</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>以下不提供文献传递服务的是___。</t>
+  </si>
+  <si>
+    <t>CALIS</t>
+  </si>
+  <si>
+    <t>CASHL</t>
+  </si>
+  <si>
+    <t>ILAS</t>
+  </si>
+  <si>
+    <t>读秀</t>
+  </si>
+  <si>
+    <t>智能手机是目前人们日常生活的必需品，在选购手机时除了外观我们也需要注重手机的性能，以下用于判断手机CPU性能的参数中哪一项相比之下最不重要：</t>
+  </si>
+  <si>
+    <t>核心数</t>
+  </si>
+  <si>
+    <t>频率</t>
+  </si>
+  <si>
+    <t>缓存</t>
+  </si>
+  <si>
+    <t>制作工艺</t>
+  </si>
+  <si>
+    <t>维普有同义词扩展功能，使用这个功能能够提高（ ）</t>
+  </si>
+  <si>
+    <t>查准率</t>
+  </si>
+  <si>
+    <t>查高率</t>
+  </si>
+  <si>
+    <t>查新率</t>
+  </si>
+  <si>
+    <t>查全率</t>
+  </si>
+  <si>
+    <t>cn域名最多可以注册多少个字符</t>
+  </si>
+  <si>
+    <t>国家社科基金项目《中国哲学前沿》，其项目编号是</t>
+  </si>
+  <si>
+    <t>19WQK003</t>
+  </si>
+  <si>
+    <t>19WQK00419WQK005</t>
+  </si>
+  <si>
+    <t>19WQK006</t>
+  </si>
+  <si>
+    <t>君问归期未有期，巴山夜雨涨秋池”。诗中的“君”指的是</t>
+  </si>
+  <si>
+    <t>以下哪一位不是开国上将？</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>邓华</t>
+  </si>
+  <si>
+    <t>李涛</t>
+  </si>
+  <si>
+    <t>王尚荣</t>
+  </si>
+  <si>
+    <t>我国除国内制定的单行知识产权法律法规外，目前还通过世界性的知识产权国际公约有31个，其中有（  ）个已生效，大部分由（  ）个世界知识产权组织管理</t>
+  </si>
+  <si>
+    <t>23,22</t>
+  </si>
+  <si>
+    <t>28,21</t>
+  </si>
+  <si>
+    <t>31,18</t>
+  </si>
+  <si>
+    <t>22,21</t>
+  </si>
+  <si>
+    <t>在cnki中，检索主题为能源建设，对其所检所出来的文献，按照下载量进行排序，对前24篇文献进行可视化分析，请问，篇均被引数是多少</t>
+  </si>
+  <si>
+    <t>华容县第二中学学校标识码为</t>
+  </si>
+  <si>
+    <t>下列网站中，可以查询商标信息的有</t>
+  </si>
+  <si>
+    <t>http://www.cssn.net.cn/</t>
+  </si>
+  <si>
+    <t>https://www.cnipa.gov.cn/</t>
+  </si>
+  <si>
+    <t>http://www.patent.com.cn</t>
+  </si>
+  <si>
+    <t>http://www.cnki.net</t>
+  </si>
+  <si>
+    <t>非法获取、出售或者提供行踪轨迹信息、通信内容、征信信息、财产信息五百条以上等情形的侵犯公民个人信息罪，应当怎样处罚：</t>
+  </si>
+  <si>
+    <t>处三年以下有期徒刑或者拘役，并处或者单处罚金</t>
+  </si>
+  <si>
+    <t>处三年以上七年以下有期徒刑，并处罚金</t>
+  </si>
+  <si>
+    <t>处七年以下有期徒刑或者拘役，并处或者单处罚金</t>
+  </si>
+  <si>
+    <t>处三年以下有期徒刑或者拘役</t>
+  </si>
+  <si>
+    <t>以下关于国务院常务会议，说法正确的是</t>
+  </si>
+  <si>
+    <t>国务院常务会议每周三召开</t>
+  </si>
+  <si>
+    <t>2022年5月，李克强主持召开国务院常务会议，部署进一步为中小微企业和个体工商户纾困举措。</t>
+  </si>
+  <si>
+    <t>在国务院网站上，可以回顾2013年的国务院会议 内容</t>
+  </si>
+  <si>
+    <t>确定对政策支持商业化运营的个人养老金予以税收免税，满足多样化需求</t>
+  </si>
+  <si>
+    <t>南京林业大学研究生郁珊珊的毕业论文为《基于多元视角的城市道路景观研究》，其导师是谁</t>
+  </si>
+  <si>
+    <t>张齐生</t>
+  </si>
+  <si>
+    <t>徐伟</t>
+  </si>
+  <si>
+    <t>王浩</t>
+  </si>
+  <si>
+    <t>不同的词典中对同一名词的解释都不一样，以下对“信息素养”的释义中，释义与出处一致的是？</t>
+  </si>
+  <si>
+    <t>“信息素养是人们在一定的法律和道德框架内利用信息技术收集、分析、处理、表达、交流、创造信息并由此解决问题的意识和能力。”——《教育学名词》</t>
+  </si>
+  <si>
+    <t>“信息素养是能够意识到何时需要信息，并具有检索信息、获取信息、评估信息和有效利用信息的能力。以解决实际问题或者做出决策。”——《管理科学技术名词》</t>
+  </si>
+  <si>
+    <t>“信息素养是对信息的获取、加工整理、分析、评价、管理、表达与交流的能力。这种能力既涉及信息内容本身，也涉及信息活动的过程、方法和结果。”——《医学影像技术学名词》</t>
+  </si>
+  <si>
+    <t>“信息素养是人们利用信息工具和信息资源的能力，以及选择、获取、识别信息，加工、处理、传递信息并创造信息的能力。”——《管理科学技术名词》</t>
+  </si>
+  <si>
+    <t>根据国家统计局发布的数据，2022年底湖南省常住人口数为（      ）万人。</t>
+  </si>
+  <si>
+    <t>石墨烯是一种由碳原子以sp131杂化轨道组成六角型呈蜂巢晶格的二维碳纳米材料。石墨烯具有优异的光学、电学、力学特性，在材料学、微纳加工、能源、生物医学和药物传递等方面具有重要的应用前景，被认为是一种未来革命性的材料。华东师范大学补赛玉的博士学位论文《石墨烯的可控合成及氮掺杂的理论研究》的参考文献不包含（）。</t>
+  </si>
+  <si>
+    <t>多层高品质石墨烯的大量制备及其应用研究</t>
+  </si>
+  <si>
+    <t>一种基于混合搜索策略的人工蜂群算法研究</t>
+  </si>
+  <si>
+    <t>Ultrafastepitaxialgrowthofmetre-sizedsingle</t>
+  </si>
+  <si>
+    <t>低熔点合金衬底上CVD法生长石墨烯</t>
+  </si>
+  <si>
+    <t>以下专利中，与《一种无菌蜂王浆便捷提取设备》属于同一专利权人的实用新型专利是：</t>
+  </si>
+  <si>
+    <t>一种水果味蜂蜜及其生产方法</t>
+  </si>
+  <si>
+    <t>一种水仙花的培育装置</t>
+  </si>
+  <si>
+    <t>一种安全型水果保鲜剂及其制备工艺</t>
+  </si>
+  <si>
+    <t>一种蜂蜜制品的配方</t>
+  </si>
+  <si>
+    <t>下列哪个国家2012年的一般政府支出占GDP比重最高？</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>《中文科技期刊数据库》目前收录期刊的总数，接近（）种</t>
+  </si>
+  <si>
+    <t>在中国科技项目创新成果鉴定意见数据库（知网版）中，检索成果名称中含有“网络教学”的内容，在2006至2010年，成果最多的年份是？</t>
+  </si>
+  <si>
+    <t>在家风家训专题数据库中，可以检索到的有？</t>
+  </si>
+  <si>
+    <t>家风文化</t>
+  </si>
+  <si>
+    <t>家风人物</t>
+  </si>
+  <si>
+    <t>家风传承</t>
+  </si>
+  <si>
+    <t>家风历史</t>
+  </si>
+  <si>
+    <t>布尔逻辑表达式：学生会干部NOT（17岁AND女生）的检索结果是（）</t>
+  </si>
+  <si>
+    <t>除了17岁以外的女学生会干部</t>
+  </si>
+  <si>
+    <t>除了17岁女生以外的学生会干部</t>
+  </si>
+  <si>
+    <t>除了女生以外的17岁学生会干部</t>
+  </si>
+  <si>
+    <t>学生会干部和17岁女生</t>
+  </si>
+  <si>
+    <t>2022年9月5日，四川甘孜藏族自治州泸定县发生6.8级地震，给人民群众造成了严重的生命财产损失。截至9月12日，2022年全国发生地震次数最多的省份是：</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>CN号是什么？</t>
+  </si>
+  <si>
+    <t>国际标准书号</t>
+  </si>
+  <si>
+    <t>国际连续出版物</t>
+  </si>
+  <si>
+    <t>中国音像制品编号</t>
+  </si>
+  <si>
+    <t>国内统一刊号</t>
+  </si>
+  <si>
+    <t>以下关于《中国年鉴网络出版总库》的说法哪个不正确？</t>
+  </si>
+  <si>
+    <t>目前已经收录年鉴及相关资料 4110多种，遥居业内第一</t>
+  </si>
+  <si>
+    <t>中心网站每月更新下数据</t>
+  </si>
+  <si>
+    <t>所收录年鉴的册数和文献条目数的完整率为99%，超过国家图书馆</t>
+  </si>
+  <si>
+    <t>是我国第一部具有拥有国家标准刊号连续出版的年鉴数据库</t>
+  </si>
+  <si>
+    <t>在word文档中，切换到普通视图快捷键按（ ）键。</t>
+  </si>
+  <si>
+    <t>Alt+ctrl+p</t>
+  </si>
+  <si>
+    <t>Alt+ctrl+o</t>
+  </si>
+  <si>
+    <t>Alt+ctrl+n</t>
+  </si>
+  <si>
+    <t>Alt+ctrl+m</t>
+  </si>
+  <si>
+    <t>万方数据库中，搜索题为《浏阳集里全科型乡镇卫生院技术集成综合示范研究》的科技报告，可以看到该科技报告的作者为：</t>
+  </si>
+  <si>
+    <t>陈小玲，李勇</t>
+  </si>
+  <si>
+    <t>陈小玲，王小华</t>
+  </si>
+  <si>
+    <t>陈小玲  阳历</t>
+  </si>
+  <si>
+    <t>陈小玲  熊伟</t>
+  </si>
+  <si>
+    <t>下列专利授权公开号中，哪一项是2019年授权的实用新型专利</t>
+  </si>
+  <si>
+    <t>CN102803845B</t>
+  </si>
+  <si>
+    <t>CN305168030S</t>
+  </si>
+  <si>
+    <t>CN208891013U</t>
+  </si>
+  <si>
+    <t>CN201720431D</t>
+  </si>
+  <si>
+    <t>为保护、发展和合理利用野生植物资源，保护生物多样性，维护生态平衡，国务院于（  ）年修订通过《中华人民共和国野生植物保护条例》</t>
+  </si>
+  <si>
+    <t>我国人口最少的乡是（ ）</t>
+  </si>
+  <si>
+    <t>玉麦乡</t>
+  </si>
+  <si>
+    <t>大长陇村</t>
+  </si>
+  <si>
+    <t>祁曼塔格乡</t>
+  </si>
+  <si>
+    <t>华西村</t>
+  </si>
+  <si>
+    <t>基于TBL改良PBL教学法在骨伤科临床见习教学中的应用研究[J]. 何海军,钮艳芳.  教育现代化. 2019(55)</t>
+  </si>
+  <si>
+    <t>TBL教学法在高职《护士职业基本技术》教学中应用的效果评价[J]. 蒙桂琴.  中国实用护理杂志. 2013(22)</t>
+  </si>
+  <si>
+    <t>TBL教学法对医学生交流恐惧影响的研究[J]. 徐麟皓,毕艳丽,陈健.  中国高等医学教育. 2021(02)</t>
+  </si>
+  <si>
+    <t>TBL教学方法在医学课程中的应用[J]. 符强.  科技创新导报. 2019(24)</t>
+  </si>
+  <si>
+    <t>冯绍雷，华东师范大学周边合作与发展协同创新中心主任，俄罗斯研究中心主任，华东师大学术委员会副主任，CSSCI期刊《俄罗斯研究》主编，教授、博士生导师。主要研究领域：俄罗斯与欧洲的政治、历史及社会转型；大国关系史研究；国际政治理论研究等。由华东师范大学冯绍雷老师指导的博士论文里面，按被引频次降序排列，排在第一的文章作者是（）。</t>
+  </si>
+  <si>
+    <t>吴绩新</t>
+  </si>
+  <si>
+    <t>崔晓娟</t>
+  </si>
+  <si>
+    <t>袁新华</t>
+  </si>
+  <si>
+    <t>张丹华</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>在做论文开题研究时，我们可以用万方分析的哪个模块来深入了解对应主题的研究情况？</t>
+  </si>
+  <si>
+    <t>主题分析</t>
+  </si>
+  <si>
+    <t>学科分析</t>
+  </si>
+  <si>
+    <t>学者分析</t>
+  </si>
+  <si>
+    <t>机构分析</t>
+  </si>
+  <si>
+    <t>以下哪些成果的完成单位不属于清华大学？</t>
+  </si>
+  <si>
+    <t> THRC9901非接触逻辑加密IC卡芯片</t>
+  </si>
+  <si>
+    <t> 电脑信息安全保护系统</t>
+  </si>
+  <si>
+    <t> 全数字有条件接收系统</t>
+  </si>
+  <si>
+    <t> 特大型电力集团一体化信息系统工程关键技术与应用</t>
+  </si>
+  <si>
+    <t>以下与污水处理相关的标准中，那个不是国家标准？</t>
+  </si>
+  <si>
+    <t> 农村生活污水处理设施运行效果评价技术要求</t>
+  </si>
+  <si>
+    <t> 污水处理用旋转曝气机能效限定值及能效等级</t>
+  </si>
+  <si>
+    <t> 城镇污水处理厂污泥处理稳定标准</t>
+  </si>
+  <si>
+    <t> 65</t>
+  </si>
+  <si>
+    <t> 63</t>
+  </si>
+  <si>
+    <t> 64</t>
+  </si>
+  <si>
+    <t> 62</t>
+  </si>
+  <si>
+    <t>在检索词为“新冠疫情”的大量检索结果中，想要快速找到关键词中包含“应急策略”的文献，应进行哪项操作？</t>
+  </si>
+  <si>
+    <t>结果中检索</t>
+  </si>
+  <si>
+    <t>检索结果排序</t>
+  </si>
+  <si>
+    <t>按学科筛选</t>
+  </si>
+  <si>
+    <t>导出文献题录</t>
+  </si>
+  <si>
+    <t>隆平是杂交水稻研究领域的开创者和带头人，致力于杂交水稻技术的研究、应用与推广，发明“三系法”籼型杂交水稻，成功研究出“两系法”杂交水稻，创建了超级杂交稻技术体系 。学位年度截止到2020年，在中国知网中检索与“杂交水稻”相关的文献，检索区域：博硕士论文库；检索词：杂交水稻、种子（两词为并含关系）；检索字段：全文，其他条件不限，根据检索结果，下载量最高的文章授予年度为（）</t>
+  </si>
+  <si>
+    <t>MOOC（Massive Open Online Courses）,中文简称慕课，萌芽于2010年的美国。请问，在读秀数据库中，最早的题名含MOOC的学位论文是哪一年的？</t>
+  </si>
+  <si>
+    <t>Semantic Scholar是一款基于机器学习的学术搜索引擎，2015 年 11 月 2 日由微软联合创始人 Paul Allen旗下的艾伦人工智能研究所发布，在它的检索结果界面我们可以通过多种方式聚类显示，但是不包括：</t>
+  </si>
+  <si>
+    <t>学科范围</t>
+  </si>
+  <si>
+    <t>发表时间</t>
+  </si>
+  <si>
+    <t>索引数据库</t>
+  </si>
+  <si>
+    <t>查询中国的国土面积有多大，执行（  ）检索。</t>
+  </si>
+  <si>
+    <t>文献型</t>
+  </si>
+  <si>
+    <t>数值型</t>
+  </si>
+  <si>
+    <t>词典型</t>
+  </si>
+  <si>
+    <t>全文型</t>
+  </si>
+  <si>
+    <t>请检索名为“一种具有远程航行的无人机”专利，其权利要求书第二条：根据权利要求1所述的具有远程航行的无人机，其特征在于，所述基片为金属（）薄膜。</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>黄铜</t>
+  </si>
+  <si>
+    <t>合金</t>
+  </si>
+  <si>
+    <t>A是B的博士论文指导老师，B在2003年以第一作者发表了期刊文章《对外汉语影视课中教师的主体作用》，请问A指导的学生没有（）。</t>
+  </si>
+  <si>
+    <t>刘弢</t>
+  </si>
+  <si>
+    <t>杨杨</t>
+  </si>
+  <si>
+    <t>崔银河</t>
+  </si>
+  <si>
+    <t>梁赛楠</t>
+  </si>
+  <si>
+    <t>《中文社会科学引文索引数据库》的缩写是</t>
+  </si>
+  <si>
+    <t>CSCI</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>CSSCI</t>
+  </si>
+  <si>
+    <t>关于标准《电动平衡车通用技术条件》，说法错误的是：</t>
+  </si>
+  <si>
+    <t>标准号：GB/T 34667-2023</t>
+  </si>
+  <si>
+    <t>发布日期：2023-09-07</t>
+  </si>
+  <si>
+    <t>纳恩博(北京)科技有限公司是起草单位</t>
+  </si>
+  <si>
+    <t>该标准是强制性标准</t>
+  </si>
+  <si>
+    <t>.高等教育出版社</t>
+  </si>
+  <si>
+    <t>郑仁圻，1951年毕业于清华大学，从事宇宙线和高能核物理学研究，请在中国人物志数据库中查找，郑仁圻是因为哪项成就在1956年获中国科学院科学奖？</t>
+  </si>
+  <si>
+    <t>建立云南落雪高山实验室和基本粒子实验工作</t>
+  </si>
+  <si>
+    <t>发表《在铅板里发生的电子光子镁射》论文</t>
+  </si>
+  <si>
+    <t>研究出稳定、实用的六路低本底α测量仪</t>
+  </si>
+  <si>
+    <t>提出双道能量补偿法.</t>
+  </si>
+  <si>
+    <t>搜索引擎可以限制检索词出现的位置，如果要求检索词出现在标题中，应使用的搜索语法是（ ）。</t>
+  </si>
+  <si>
+    <t>intitle</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>inurl</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>朱熹是宋朝著名的理学家、思想家、哲学家、教育家、诗人，闽学派的代表人物，儒学集大成者，世尊称为朱子。朱熹的理学思想对元、明、清三朝影响很大，成为三朝的官方哲学，是中国教育史上继孔子后的又一人。华东师范大学龙兴的博士学位论文《“学以为己”：朱熹课程思想研究》是在（）导师的指导下完成的。</t>
+  </si>
+  <si>
+    <t>冯绍雷</t>
+  </si>
+  <si>
+    <t>吴刚平</t>
+  </si>
+  <si>
+    <t>崔允漷</t>
+  </si>
+  <si>
+    <t>范国睿</t>
+  </si>
+  <si>
+    <t>有四本书的索书号分别为①U464/1294  ②U411/2112 ③U463.1/2829 ④U462.2/1179，请问正确的先后排列顺序为？</t>
+  </si>
+  <si>
+    <t>①②③④</t>
+  </si>
+  <si>
+    <t>①③②④</t>
+  </si>
+  <si>
+    <t>②④③①</t>
+  </si>
+  <si>
+    <t>②③④①</t>
+  </si>
+  <si>
+    <t>以下哪一位是第二批“百名研究生党员标兵”之一</t>
+  </si>
+  <si>
+    <t>南开大学英语学院李培</t>
+  </si>
+  <si>
+    <t>河北医科大学基础医学院赵明</t>
+  </si>
+  <si>
+    <t>吉林大学汽车学院沈浩</t>
+  </si>
+  <si>
+    <t>延边大学研究生学院李鸣飞</t>
+  </si>
+  <si>
+    <t>“世界图书与版权日”是每年的（）。</t>
+  </si>
+  <si>
+    <t>以下数据库中不能提供全文的数据库是：</t>
+  </si>
+  <si>
+    <t>维普期刊资源整合服务平台</t>
+  </si>
+  <si>
+    <t>中国知网CNKI</t>
+  </si>
+  <si>
+    <t>万方数据知识服务平台</t>
+  </si>
+  <si>
+    <t>中国科学引文索引CSCD</t>
+  </si>
+  <si>
+    <t>（  ）是指未检出的相关信息量与检索系统中实际与检索主题相关的信息总量的比率。</t>
+  </si>
+  <si>
+    <t>误检率</t>
+  </si>
+  <si>
+    <t>漏捡率</t>
+  </si>
+  <si>
     <t>学科分类与代码国家标准 GB/T 13745-2009中，二级学科社会心理学（19020）包含哪几个三级学科？</t>
   </si>
   <si>
@@ -1205,24 +2527,9 @@
     <t>医患社会心态的形成机制与治理路径研究</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>以下哪个期刊没有曾用名？</t>
   </si>
   <si>
-    <t>当代艺术</t>
-  </si>
-  <si>
-    <t>创意与设计</t>
-  </si>
-  <si>
-    <t>海峡人文学刊</t>
-  </si>
-  <si>
-    <t>大众文艺</t>
-  </si>
-  <si>
     <t>以下哪些属于中国传统四大名绣？</t>
   </si>
   <si>
@@ -1265,12 +2572,6 @@
     <t>NSLC</t>
   </si>
   <si>
-    <t>CALIS</t>
-  </si>
-  <si>
-    <t>CASHL</t>
-  </si>
-  <si>
     <t>ACD</t>
   </si>
   <si>
@@ -1304,6 +2605,9 @@
     <t>武威文庙</t>
   </si>
   <si>
+    <t>ABD</t>
+  </si>
+  <si>
     <t>常用的文摘数据库包括</t>
   </si>
   <si>
@@ -1643,9 +2947,6 @@
     <t>Microsoft Windows Server 2012 R2</t>
   </si>
   <si>
-    <t>ABD</t>
-  </si>
-  <si>
     <t>以下网络热门文学中，被收入国家图书馆馆藏？</t>
   </si>
   <si>
@@ -1751,18 +3052,6 @@
     <t>以下哪些是术语在线的来源数据库</t>
   </si>
   <si>
-    <t>重大国家战略常用关键词表</t>
-  </si>
-  <si>
-    <t>审定公布名词数据库</t>
-  </si>
-  <si>
-    <t>大数据多语种术语百科</t>
-  </si>
-  <si>
-    <t>海峡名词数据库</t>
-  </si>
-  <si>
     <t>以下哪些使用的目录式搜索引擎？</t>
   </si>
   <si>
@@ -2231,6 +3520,66 @@
     <t>高等教育学历证书</t>
   </si>
   <si>
+    <t>全书共三卷四册</t>
+  </si>
+  <si>
+    <t>综合卷中综合篇和企业篇汇总表，均包含少量无分组标识的单位数据</t>
+  </si>
+  <si>
+    <t>《第三产业卷》分五篇</t>
+  </si>
+  <si>
+    <t>《综合卷》分三篇：第一篇为“综合篇”，第二篇为“企业篇”，第三篇为“文化及相关产业篇”。</t>
+  </si>
+  <si>
+    <t>EPS数据平台（http://olap.epsnet.com.cn/）中，《中国海洋数据库》数据来源于国家海洋局，在这个数据库中可以查到我国四大海区（渤海、黄海、东海、南海）以下哪些数据？（  ）</t>
+  </si>
+  <si>
+    <t>海域面积</t>
+  </si>
+  <si>
+    <t>海洋石油储量</t>
+  </si>
+  <si>
+    <t>捕捞产量</t>
+  </si>
+  <si>
+    <t>海区环境保护情况</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>数据库备份主要包括</t>
+  </si>
+  <si>
+    <t>冷备份</t>
+  </si>
+  <si>
+    <t>热备份</t>
+  </si>
+  <si>
+    <t>逻辑备份</t>
+  </si>
+  <si>
+    <t>物理备份</t>
+  </si>
+  <si>
+    <t>以下哪个公司的生产的手术衣不是通过境内医疗器械注册批准使用的</t>
+  </si>
+  <si>
+    <t>江西丹美衣实业有限公司</t>
+  </si>
+  <si>
+    <t>咸宁市福达医疗用品股份有限公司</t>
+  </si>
+  <si>
+    <t>湖北明尔康卫生防护用品有限公司</t>
+  </si>
+  <si>
+    <t>长沙瑞泰医学科技有限公司</t>
+  </si>
+  <si>
     <t>驾驶人连续驾驶4小时以上，应停车休息不少于15分钟。</t>
   </si>
   <si>
@@ -2556,63 +3905,19 @@
   </si>
   <si>
     <t>一般来说，查全率和查准率之间存在互逆的相关性，提高查全率，就会降低查准率。</t>
-  </si>
-  <si>
-    <t>关于第四次全国经济普查，说法正确的是？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全书共三卷四册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合卷中综合篇和企业篇汇总表，均包含少量无分组标识的单位数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《第三产业卷》分五篇</t>
-  </si>
-  <si>
-    <t>《综合卷》分三篇：第一篇为“综合篇”，第二篇为“企业篇”，第三篇为“文化及相关产业篇”。</t>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPS数据平台（http://olap.epsnet.com.cn/）中，《中国海洋数据库》数据来源于国家海洋局，在这个数据库中可以查到我国四大海区（渤海、黄海、东海、南海）以下哪些数据？（  ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海域面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋石油储量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕捞产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海区环境保护情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2621,30 +3926,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2652,33 +4279,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2936,26 +4849,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="40.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="50.625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="40.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +4888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="128.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2995,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" ht="57" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +4928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="42.75" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3035,7 +4948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" ht="42.75" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3055,7 +4968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3075,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" ht="42.75" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3095,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3115,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -3135,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="42.75" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="71.25" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3175,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="28.5" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -3195,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="28.5" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3215,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -3235,7 +5148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -3255,7 +5168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="42.75" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3275,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="28.5" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3295,7 +5208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="28.5" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -3315,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -3335,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -3355,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="28.5" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -3375,7 +5288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" ht="42.75" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -3395,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -3415,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="28.5" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -3435,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="28.5" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
@@ -3455,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="26" ht="99.75" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>126</v>
       </c>
@@ -3475,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>131</v>
       </c>
@@ -3495,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>136</v>
       </c>
@@ -3515,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -3535,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="42.75" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
@@ -3555,7 +5468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="31" ht="57" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
@@ -3575,7 +5488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
@@ -3595,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" ht="42.75" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>161</v>
       </c>
@@ -3615,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -3635,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
@@ -3655,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" ht="42.75" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>176</v>
       </c>
@@ -3675,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="28.5" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
@@ -3695,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>186</v>
       </c>
@@ -3715,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="28.5" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>191</v>
       </c>
@@ -3735,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>196</v>
       </c>
@@ -3755,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -3775,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" ht="42.75" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>206</v>
       </c>
@@ -3795,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="28.5" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>211</v>
       </c>
@@ -3815,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="42.75" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>216</v>
       </c>
@@ -3835,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="28.5" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>221</v>
       </c>
@@ -3855,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>226</v>
       </c>
@@ -3875,7 +5788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>230</v>
       </c>
@@ -3895,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="28.5" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>235</v>
       </c>
@@ -3915,7 +5828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="49" ht="57" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" ht="42.75" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3955,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="42.75" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="52" ht="42.75" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
@@ -3995,7 +5908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="28.5" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -4015,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="54" ht="42.75" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -4035,7 +5948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" ht="42.75" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>243</v>
       </c>
@@ -4055,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="99.75" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
@@ -4075,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="57" ht="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>151</v>
       </c>
@@ -4095,7 +6008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" ht="42.75" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>248</v>
       </c>
@@ -4115,7 +6028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>186</v>
       </c>
@@ -4135,7 +6048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>201</v>
       </c>
@@ -4155,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="28.5" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -4175,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" ht="42.75" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>216</v>
       </c>
@@ -4195,7 +6108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>253</v>
       </c>
@@ -4215,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
@@ -4235,7 +6148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="28.5" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>263</v>
       </c>
@@ -4255,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="28.5" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>268</v>
       </c>
@@ -4275,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>273</v>
       </c>
@@ -4295,7 +6208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>278</v>
       </c>
@@ -4315,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="69" ht="71.25" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>283</v>
       </c>
@@ -4335,7 +6248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="28.5" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>288</v>
       </c>
@@ -4355,7 +6268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="28.5" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>293</v>
       </c>
@@ -4375,7 +6288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="72" ht="156.75" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>298</v>
       </c>
@@ -4395,7 +6308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="28.5" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>303</v>
       </c>
@@ -4415,7 +6328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" ht="42.75" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>308</v>
       </c>
@@ -4435,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>313</v>
       </c>
@@ -4455,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="76" ht="57" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>318</v>
       </c>
@@ -4475,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="28.5" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>323</v>
       </c>
@@ -4495,7 +6408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="28.5" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>325</v>
       </c>
@@ -4515,7 +6428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="28.5" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>330</v>
       </c>
@@ -4535,7 +6448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="28.5" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>335</v>
       </c>
@@ -4555,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="28.5" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>340</v>
       </c>
@@ -4575,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="82" ht="57" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>345</v>
       </c>
@@ -4595,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="28.5" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>350</v>
       </c>
@@ -4615,28 +6528,2230 @@
         <v>3</v>
       </c>
     </row>
+    <row r="84" ht="28.5" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" ht="28.5" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" s="1">
+        <v>25500</v>
+      </c>
+      <c r="C85" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45500</v>
+      </c>
+      <c r="E85" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" ht="28.5" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" ht="71.25" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" ht="28.5" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="28.5" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="28.5" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="57" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" ht="28.5" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="57" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" ht="42.75" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" ht="28.5" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" ht="42.75" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" ht="28.5" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="42.75" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="99.75" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" ht="42.75" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B111" s="1">
+        <v>7879562</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" ht="42.75" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B112" s="1">
+        <v>996</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2800</v>
+      </c>
+      <c r="E112" s="1">
+        <v>300</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" ht="42.75" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="28.5" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" ht="28.5" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="99.75" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" ht="42.75" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" ht="28.5" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B122" s="1">
+        <v>861</v>
+      </c>
+      <c r="C122" s="1">
+        <v>488</v>
+      </c>
+      <c r="D122" s="1">
+        <v>562</v>
+      </c>
+      <c r="E122" s="1">
+        <v>551</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" ht="28.5" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="28.5" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="71.25" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" ht="28.5" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B130" s="1">
+        <v>38222.3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>38087.3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>21911.5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>23659.5</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="42.75" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" ht="42.75" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B139" s="1">
+        <v>65</v>
+      </c>
+      <c r="C139" s="1">
+        <v>63</v>
+      </c>
+      <c r="D139" s="1">
+        <v>64</v>
+      </c>
+      <c r="E139" s="1">
+        <v>62</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" ht="42.75" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" ht="42.75" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B144" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="E144" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3443000733</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3443000723</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3443000731</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3443000730</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" ht="42.75" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" ht="42.75" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" ht="28.5" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" ht="57" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" ht="28.5" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B151" s="1">
+        <v>8226</v>
+      </c>
+      <c r="C151" s="1">
+        <v>6622</v>
+      </c>
+      <c r="D151" s="1">
+        <v>6604</v>
+      </c>
+      <c r="E151" s="1">
+        <v>91425</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" ht="85.5" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="28.5" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B155" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C155" s="1">
+        <v>15500</v>
+      </c>
+      <c r="D155" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>16500</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="42.75" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E156" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" ht="28.5" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" ht="42.75" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" ht="28.5" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" ht="42.75" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" ht="28.5" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" ht="42.75" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" ht="42.75" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" ht="99.75" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="169" ht="28.5" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" ht="28.5" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" ht="28.5" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" ht="99.75" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B174" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D174" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" ht="42.75" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B175" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E175" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" ht="42.75" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" ht="57" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" ht="42.75" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" ht="42.75" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" ht="28.5" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C181" s="1">
+        <v>43587</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44166</v>
+      </c>
+      <c r="E181" s="1">
+        <v>43770</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B182" s="1">
+        <v>9782266290708</v>
+      </c>
+      <c r="C182" s="1">
+        <v>9787530209554</v>
+      </c>
+      <c r="D182" s="1">
+        <v>9781108647533</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" ht="28.5" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" ht="42.75" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" ht="28.5" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" ht="85.5" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" ht="28.5" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45374</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45405</v>
+      </c>
+      <c r="D191" s="1">
+        <v>45436</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45458</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" ht="28.5" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C146" r:id="rId1" display="https://www.cnipa.gov.cn/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
     <col min="2" max="5" width="40.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4656,287 +8771,287 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" ht="28.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>797</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>798</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>357</v>
+        <v>799</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>800</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>359</v>
+        <v>801</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>804</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>363</v>
+        <v>805</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>364</v>
+        <v>806</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>807</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>810</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>369</v>
+        <v>811</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>370</v>
+        <v>812</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>371</v>
+        <v>813</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>372</v>
+        <v>814</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>373</v>
+        <v>815</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>816</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>375</v>
+        <v>817</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>818</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>378</v>
+        <v>820</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>821</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>380</v>
+        <v>822</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>381</v>
+        <v>823</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>382</v>
+        <v>824</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>384</v>
+        <v>826</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>827</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>386</v>
+        <v>828</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>387</v>
+        <v>829</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>388</v>
+        <v>830</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>831</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>832</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>396</v>
+        <v>833</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>397</v>
+        <v>834</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>398</v>
+        <v>835</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>399</v>
+        <v>836</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>837</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>838</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>839</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>403</v>
+        <v>840</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>404</v>
+        <v>841</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>406</v>
+        <v>843</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>407</v>
+        <v>844</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>408</v>
+        <v>845</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>409</v>
+        <v>579</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>410</v>
+        <v>580</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>412</v>
+        <v>847</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>413</v>
+        <v>848</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>414</v>
+        <v>849</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>415</v>
+        <v>850</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>416</v>
+        <v>851</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>417</v>
+        <v>852</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>418</v>
+        <v>853</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>419</v>
+        <v>854</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>420</v>
+        <v>855</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>422</v>
+        <v>858</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>423</v>
+        <v>859</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>424</v>
+        <v>860</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>426</v>
+        <v>862</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>427</v>
+        <v>863</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>428</v>
+        <v>864</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>429</v>
+        <v>865</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>430</v>
+        <v>866</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>431</v>
+        <v>867</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -4947,7 +9062,7 @@
         <v>218</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>432</v>
+        <v>868</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>220</v>
@@ -4956,87 +9071,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>433</v>
+        <v>869</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>434</v>
+        <v>870</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>435</v>
+        <v>871</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>437</v>
+        <v>873</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>438</v>
+        <v>874</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>439</v>
+        <v>875</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>440</v>
+        <v>876</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>441</v>
+        <v>877</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>442</v>
+        <v>878</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>443</v>
+        <v>879</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>444</v>
+        <v>880</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>445</v>
+        <v>881</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>446</v>
+        <v>882</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>447</v>
+        <v>883</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>448</v>
+        <v>884</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>449</v>
+        <v>885</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>450</v>
+        <v>886</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>451</v>
+        <v>887</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>452</v>
+        <v>888</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
@@ -5050,1213 +9165,1254 @@
         <v>266</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>453</v>
+        <v>889</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>454</v>
+        <v>890</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>455</v>
+        <v>891</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>456</v>
+        <v>892</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>457</v>
+        <v>893</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>458</v>
+        <v>894</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>459</v>
+        <v>895</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>460</v>
+        <v>896</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>461</v>
+        <v>897</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>462</v>
+        <v>898</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>463</v>
+        <v>899</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>464</v>
+        <v>900</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>465</v>
+        <v>901</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>466</v>
+        <v>902</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>467</v>
+        <v>903</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>468</v>
+        <v>904</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>469</v>
+        <v>905</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>470</v>
+        <v>906</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>471</v>
+        <v>907</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>472</v>
+        <v>908</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>473</v>
+        <v>909</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>474</v>
+        <v>910</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>475</v>
+        <v>911</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>476</v>
+        <v>912</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>477</v>
+        <v>913</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>478</v>
+        <v>914</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>480</v>
+        <v>916</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>481</v>
+        <v>917</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>482</v>
+        <v>918</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>483</v>
+        <v>919</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>484</v>
+        <v>920</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>485</v>
+        <v>921</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>486</v>
+        <v>922</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>487</v>
+        <v>923</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>488</v>
+        <v>924</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>489</v>
+        <v>925</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>490</v>
+        <v>926</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>491</v>
+        <v>927</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>492</v>
+        <v>928</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>493</v>
+        <v>929</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>494</v>
+        <v>930</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>495</v>
+        <v>931</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>496</v>
+        <v>932</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>497</v>
+        <v>933</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>498</v>
+        <v>934</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>499</v>
+        <v>935</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" ht="28.5" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>500</v>
+        <v>936</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>501</v>
+        <v>937</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>502</v>
+        <v>938</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>503</v>
+        <v>939</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>504</v>
+        <v>940</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>505</v>
+        <v>941</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>506</v>
+        <v>942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>507</v>
+        <v>943</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>508</v>
+        <v>944</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>510</v>
+        <v>946</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>511</v>
+        <v>947</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>512</v>
+        <v>948</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>513</v>
+        <v>949</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>514</v>
+        <v>950</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>515</v>
+        <v>951</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>516</v>
+        <v>952</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>517</v>
+        <v>953</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>518</v>
+        <v>954</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>519</v>
+        <v>955</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>520</v>
+        <v>956</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>521</v>
+        <v>957</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>522</v>
+        <v>958</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>523</v>
+        <v>959</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>524</v>
+        <v>960</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>526</v>
+        <v>962</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>527</v>
+        <v>963</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>528</v>
+        <v>964</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>529</v>
+        <v>965</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>530</v>
+        <v>966</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>531</v>
+        <v>967</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>532</v>
+        <v>968</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>533</v>
+        <v>969</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>534</v>
+        <v>970</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>536</v>
+        <v>971</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>537</v>
+        <v>972</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>538</v>
+        <v>973</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>539</v>
+        <v>974</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>540</v>
+        <v>975</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>541</v>
+        <v>976</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>542</v>
+        <v>977</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>502</v>
+        <v>938</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>543</v>
+        <v>978</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>544</v>
+        <v>979</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>545</v>
+        <v>980</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>546</v>
+        <v>981</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>547</v>
+        <v>982</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>548</v>
+        <v>983</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>549</v>
+        <v>984</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>550</v>
+        <v>985</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>551</v>
+        <v>986</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>552</v>
+        <v>987</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>553</v>
+        <v>988</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>554</v>
+        <v>989</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>502</v>
+        <v>938</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>542</v>
+        <v>977</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>555</v>
+        <v>990</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>556</v>
+        <v>991</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>557</v>
+        <v>992</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>558</v>
+        <v>993</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>559</v>
+        <v>994</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>560</v>
+        <v>995</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>561</v>
+        <v>996</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>562</v>
+        <v>997</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>563</v>
+        <v>998</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>564</v>
+        <v>999</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>565</v>
+        <v>1000</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>566</v>
+        <v>1001</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>567</v>
+        <v>1002</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>568</v>
+        <v>1003</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>569</v>
+        <v>1004</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>570</v>
+        <v>1005</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>571</v>
+        <v>392</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>572</v>
+        <v>393</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>573</v>
+        <v>394</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>574</v>
+        <v>395</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>575</v>
+        <v>1006</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>576</v>
+        <v>1007</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>577</v>
+        <v>1008</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>578</v>
+        <v>1009</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>579</v>
+        <v>1010</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>580</v>
+        <v>1011</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>581</v>
+        <v>1012</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>582</v>
+        <v>1013</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>583</v>
+        <v>1014</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="49" ht="28.5" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>584</v>
+        <v>1015</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>585</v>
+        <v>1016</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>586</v>
+        <v>1017</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>587</v>
+        <v>1018</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>588</v>
+        <v>1019</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>589</v>
+        <v>1020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>590</v>
+        <v>1021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>591</v>
+        <v>1022</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>592</v>
+        <v>1023</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>526</v>
+        <v>962</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" ht="28.5" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>593</v>
+        <v>1024</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>594</v>
+        <v>1025</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>595</v>
+        <v>1026</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>596</v>
+        <v>1027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>597</v>
+        <v>1028</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" ht="28.5" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>598</v>
+        <v>1029</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>599</v>
+        <v>1030</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>600</v>
+        <v>1031</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>601</v>
+        <v>1032</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>602</v>
+        <v>1033</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>603</v>
+        <v>1034</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>604</v>
+        <v>1035</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>605</v>
+        <v>1036</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>606</v>
+        <v>1037</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>607</v>
+        <v>1038</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>608</v>
+        <v>1039</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>609</v>
+        <v>1040</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>610</v>
+        <v>1041</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>611</v>
+        <v>1042</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>612</v>
+        <v>1043</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>613</v>
+        <v>1044</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>614</v>
+        <v>1045</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>615</v>
+        <v>1046</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>616</v>
+        <v>1047</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>617</v>
+        <v>1048</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>618</v>
+        <v>1049</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>619</v>
+        <v>1050</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>620</v>
+        <v>1051</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>621</v>
+        <v>1052</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>622</v>
+        <v>1053</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="57" ht="28.5" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>623</v>
+        <v>1054</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>624</v>
+        <v>1055</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>625</v>
+        <v>1056</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>626</v>
+        <v>1057</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>627</v>
+        <v>1058</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>628</v>
+        <v>1059</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>629</v>
+        <v>1060</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>630</v>
+        <v>1061</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>631</v>
+        <v>1062</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>632</v>
+        <v>1063</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>633</v>
+        <v>1064</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>634</v>
+        <v>1065</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>635</v>
+        <v>1066</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>636</v>
+        <v>1067</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>637</v>
+        <v>1068</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>638</v>
+        <v>1069</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>639</v>
+        <v>1070</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>640</v>
+        <v>1071</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>641</v>
+        <v>1072</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>642</v>
+        <v>1073</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="61" ht="28.5" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>643</v>
+        <v>1074</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>644</v>
+        <v>1075</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>645</v>
+        <v>1076</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>646</v>
+        <v>1077</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>647</v>
+        <v>1078</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="62" ht="28.5" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>648</v>
+        <v>1079</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>649</v>
+        <v>1080</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>650</v>
+        <v>1081</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>651</v>
+        <v>1082</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>652</v>
+        <v>1083</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>653</v>
+        <v>1084</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>654</v>
+        <v>1085</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>655</v>
+        <v>1086</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>656</v>
+        <v>1087</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>657</v>
+        <v>1088</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="64" ht="42.75" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>658</v>
+        <v>1089</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>659</v>
+        <v>1090</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>660</v>
+        <v>1091</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>661</v>
+        <v>1092</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>662</v>
+        <v>1093</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>663</v>
+        <v>1094</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>664</v>
+        <v>1095</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>665</v>
+        <v>1096</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>666</v>
+        <v>1097</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>667</v>
+        <v>1098</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>668</v>
+        <v>1099</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>669</v>
+        <v>1100</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>670</v>
+        <v>1101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>671</v>
+        <v>1102</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>672</v>
+        <v>1103</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>673</v>
+        <v>1104</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>674</v>
+        <v>1105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>675</v>
+        <v>1106</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>676</v>
+        <v>1107</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>677</v>
+        <v>1108</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>678</v>
+        <v>1109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>679</v>
+        <v>1110</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>680</v>
+        <v>1111</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>681</v>
+        <v>1112</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>682</v>
+        <v>1113</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="69" ht="28.5" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>683</v>
+        <v>1114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>684</v>
+        <v>1115</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>685</v>
+        <v>1116</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>686</v>
+        <v>1117</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>687</v>
+        <v>1118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>688</v>
+        <v>1119</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>689</v>
+        <v>1120</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>690</v>
+        <v>1121</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>691</v>
+        <v>1122</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="71" ht="28.5" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>692</v>
+        <v>1123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>693</v>
+        <v>1124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>694</v>
+        <v>1125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>695</v>
+        <v>1126</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>696</v>
+        <v>1127</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="72" ht="28.5" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>697</v>
+        <v>1128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>698</v>
+        <v>1129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>699</v>
+        <v>1130</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>700</v>
+        <v>1131</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>701</v>
+        <v>1132</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="73" ht="28.5" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>702</v>
+        <v>1133</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>703</v>
+        <v>1134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>704</v>
+        <v>1135</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>705</v>
+        <v>1136</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>706</v>
+        <v>1137</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>707</v>
+        <v>1138</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>708</v>
+        <v>1139</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>709</v>
+        <v>1140</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>710</v>
+        <v>1141</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>711</v>
+        <v>1142</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" ht="28.5" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>712</v>
+        <v>1143</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>713</v>
+        <v>1144</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>714</v>
+        <v>1145</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>715</v>
+        <v>1146</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>713</v>
+        <v>1144</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="76" ht="28.5" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>716</v>
+        <v>1147</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>717</v>
+        <v>1148</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>718</v>
+        <v>1149</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>719</v>
+        <v>1150</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>720</v>
+        <v>1151</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" ht="57" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>721</v>
+        <v>1152</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>722</v>
+        <v>1153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>723</v>
+        <v>1154</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>724</v>
+        <v>1155</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>725</v>
+        <v>1156</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>726</v>
+        <v>1157</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>728</v>
+        <v>1159</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>729</v>
+        <v>1160</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>730</v>
+        <v>1161</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="79" ht="28.5" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>840</v>
+        <v>546</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>842</v>
+        <v>1162</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>843</v>
+        <v>1164</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>844</v>
+        <v>1165</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="80" ht="57" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>846</v>
+        <v>1166</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>847</v>
+        <v>1167</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>848</v>
+        <v>1168</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>849</v>
+        <v>1169</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>850</v>
+        <v>1170</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>851</v>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="82" ht="28.5" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="100.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6264,904 +10420,904 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>731</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>733</v>
+        <v>1184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>735</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>736</v>
+        <v>1187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>737</v>
+        <v>1188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>738</v>
+        <v>1189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>739</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>740</v>
+        <v>1191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>741</v>
+        <v>1192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>742</v>
+        <v>1193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>743</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>744</v>
+        <v>1195</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>745</v>
+        <v>1196</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>746</v>
+        <v>1197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>747</v>
+        <v>1198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>749</v>
+        <v>1200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>750</v>
+        <v>1201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>751</v>
+        <v>1202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>753</v>
+        <v>1204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>754</v>
+        <v>1205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>755</v>
+        <v>1206</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>756</v>
+        <v>1207</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>757</v>
+        <v>1208</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>758</v>
+        <v>1209</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>759</v>
+        <v>1210</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>760</v>
+        <v>1211</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>761</v>
+        <v>1212</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>762</v>
+        <v>1213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>763</v>
+        <v>1214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>764</v>
+        <v>1215</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>765</v>
+        <v>1216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>766</v>
+        <v>1217</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>767</v>
+        <v>1218</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>768</v>
+        <v>1219</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>769</v>
+        <v>1220</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>770</v>
+        <v>1221</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>771</v>
+        <v>1222</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>772</v>
+        <v>1223</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>773</v>
+        <v>1224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>774</v>
+        <v>1225</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>775</v>
+        <v>1226</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>776</v>
+        <v>1227</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>777</v>
+        <v>1228</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>778</v>
+        <v>1229</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>779</v>
+        <v>1230</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>780</v>
+        <v>1231</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>781</v>
+        <v>1232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>782</v>
+        <v>1233</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>783</v>
+        <v>1234</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="51" ht="28.5" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>784</v>
+        <v>1235</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>785</v>
+        <v>1236</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="53" ht="42.75" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>786</v>
+        <v>1237</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>787</v>
+        <v>1238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>788</v>
+        <v>1239</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>789</v>
+        <v>1240</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>790</v>
+        <v>1241</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>791</v>
+        <v>1242</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>792</v>
+        <v>1243</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>793</v>
+        <v>1244</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>794</v>
+        <v>1245</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>795</v>
+        <v>1246</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="63" ht="28.5" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>733</v>
+        <v>1184</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>747</v>
+        <v>1198</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>796</v>
+        <v>1247</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>751</v>
+        <v>1202</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>754</v>
+        <v>1205</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>755</v>
+        <v>1206</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>759</v>
+        <v>1210</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>797</v>
+        <v>1248</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>794</v>
+        <v>1245</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>798</v>
+        <v>1249</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>799</v>
+        <v>1250</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>800</v>
+        <v>1251</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>801</v>
+        <v>1252</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>802</v>
+        <v>1253</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>803</v>
+        <v>1254</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>804</v>
+        <v>1255</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>805</v>
+        <v>1256</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>806</v>
+        <v>1257</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>807</v>
+        <v>1258</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>808</v>
+        <v>1259</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>809</v>
+        <v>1260</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="84" ht="28.5" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>810</v>
+        <v>1261</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="85" ht="28.5" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>811</v>
+        <v>1262</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>812</v>
+        <v>1263</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>813</v>
+        <v>1264</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>814</v>
+        <v>1265</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>815</v>
+        <v>1266</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>816</v>
+        <v>1267</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>817</v>
+        <v>1268</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>818</v>
+        <v>1269</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>819</v>
+        <v>1270</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>820</v>
+        <v>1271</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="95" ht="28.5" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>821</v>
+        <v>1272</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="96" ht="42.75" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>822</v>
+        <v>1273</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="97" ht="28.5" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>823</v>
+        <v>1274</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>824</v>
+        <v>1275</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>825</v>
+        <v>1276</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>826</v>
+        <v>1277</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>827</v>
+        <v>1278</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>828</v>
+        <v>1279</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>829</v>
+        <v>1280</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="104" ht="28.5" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>830</v>
+        <v>1281</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>832</v>
+        <v>1283</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="107" ht="28.5" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>833</v>
+        <v>1284</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>834</v>
+        <v>1285</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>835</v>
+        <v>1286</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>836</v>
+        <v>1287</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>837</v>
+        <v>1288</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>838</v>
+        <v>1289</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>839</v>
+        <v>1290</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>734</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/信息素养/题库(已整理).xlsx
+++ b/信息素养/题库(已整理).xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="单选题" sheetId="19" r:id="rId1"/>
+    <sheet name="单选题" sheetId="21" r:id="rId1"/>
     <sheet name="多选题" sheetId="17" r:id="rId2"/>
     <sheet name="判断题" sheetId="20" r:id="rId3"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1348">
   <si>
     <t>题</t>
   </si>
@@ -2425,6 +2425,183 @@
     <t>漏捡率</t>
   </si>
   <si>
+    <t>DOI：10.13811/j.cnki.eer.2023.10.014的期刊论文，关键词不包括以下哪项？</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>教师发展</t>
+  </si>
+  <si>
+    <t>评价研究</t>
+  </si>
+  <si>
+    <t>路径与对策</t>
+  </si>
+  <si>
+    <t>在12306的app中查询火车票信息时，一般需要输入出发地、目的地、出发日等条件，我们输入这三个条件也可以认为是检索点，他们之间没有明确的连接关系，但实际上这三个条件的关系是</t>
+  </si>
+  <si>
+    <t>不包括</t>
+  </si>
+  <si>
+    <t>或者</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>并且</t>
+  </si>
+  <si>
+    <t>在中国知网期刊中，请查找湘潭大学王先友老师在2008-2012年，以第一作者发表的论文中被EI收录的是哪一篇：</t>
+  </si>
+  <si>
+    <t>大容量锰酸锂动力电池的研制</t>
+  </si>
+  <si>
+    <t>(NiO+CoO)/活性炭超级电容器电极材料的制备及其性能</t>
+  </si>
+  <si>
+    <t>矿山机车用中等功率型锂离子电池制备技术</t>
+  </si>
+  <si>
+    <t>阳离子Fe位掺杂对LiFePO4正极材料电化学性能的影响</t>
+  </si>
+  <si>
+    <t>出痘，在中国古代有重要的仪式，道光朝备办诸阿哥出痘仪式中，以下哪个说法是错误的？</t>
+  </si>
+  <si>
+    <t>四阿哥喜痘应用宝幡架一分、猪羊馒首架四个、酒笼一个、焚纸炉一个、引灯二个</t>
+  </si>
+  <si>
+    <t>五阿哥出喜痘共用硬彩子见方尺四百八十二尺，折长二丈、高三尺五寸硬彩子七架。</t>
+  </si>
+  <si>
+    <t>六阿哥出喜痘用软彩子五十二架。</t>
+  </si>
+  <si>
+    <t>八阿哥出喜痘以上铁料共重五十斤。</t>
+  </si>
+  <si>
+    <t>关于纪录片《同心共筑中国梦》描述正确的是？</t>
+  </si>
+  <si>
+    <t>共分为三集</t>
+  </si>
+  <si>
+    <t>是历史纪录片</t>
+  </si>
+  <si>
+    <t>第二集名为共同繁荣</t>
+  </si>
+  <si>
+    <t>第三集名为携手圆梦</t>
+  </si>
+  <si>
+    <t>国家社科基金项目《中国哲学前沿》，其项目编号是？</t>
+  </si>
+  <si>
+    <t>19WQK004</t>
+  </si>
+  <si>
+    <t>19WQK005</t>
+  </si>
+  <si>
+    <t>万方数据知识服务平台中“万方选题 ”，有哪三个主要功能模块？</t>
+  </si>
+  <si>
+    <t>期刊、学位、会议</t>
+  </si>
+  <si>
+    <t>文献精读、选题 发现、定题 评测</t>
+  </si>
+  <si>
+    <t>追踪前沿、回顾脉络、挖掘主题</t>
+  </si>
+  <si>
+    <t>统一管理、清晰分类、便捷订阅</t>
+  </si>
+  <si>
+    <t>有四本书的索书号分别为①U464/1294 ②U411/2112 ③U463.1/2829 ④U462.2/1179，请问正确的先后排列顺序为？</t>
+  </si>
+  <si>
+    <t>在读秀知识库中进行图书馆的文献传递，一次申请的最大值是？</t>
+  </si>
+  <si>
+    <t>一本</t>
+  </si>
+  <si>
+    <t>一本书的80%</t>
+  </si>
+  <si>
+    <t>100页</t>
+  </si>
+  <si>
+    <t>50页</t>
+  </si>
+  <si>
+    <t>以下哪副画作由海外文化机构珍藏？</t>
+  </si>
+  <si>
+    <t>百子团圆图</t>
+  </si>
+  <si>
+    <t>耕作图</t>
+  </si>
+  <si>
+    <t>五牛图</t>
+  </si>
+  <si>
+    <t>平生乐事图册</t>
+  </si>
+  <si>
+    <t>我国国内图书馆使用最广泛的分类法体系是（ ）。</t>
+  </si>
+  <si>
+    <t>《中国科学院图书馆图书分类法》</t>
+  </si>
+  <si>
+    <t>《国际十进制分类法》</t>
+  </si>
+  <si>
+    <t>《中国图书馆分类法》</t>
+  </si>
+  <si>
+    <t>《杜威十进分类法》</t>
+  </si>
+  <si>
+    <t>《卫生职业教育》杂志2012年至2021年之间年度总文献量最高的是？</t>
+  </si>
+  <si>
+    <t>“维普考试资源系统”目前约有多少套试题</t>
+  </si>
+  <si>
+    <t>12-18万套</t>
+  </si>
+  <si>
+    <t>18万套以上</t>
+  </si>
+  <si>
+    <t>5万套以下</t>
+  </si>
+  <si>
+    <t>5-12万套</t>
+  </si>
+  <si>
+    <t>影响因子是评价（ ）的重要指标。</t>
+  </si>
+  <si>
+    <t>报纸</t>
+  </si>
+  <si>
+    <t>论文</t>
+  </si>
+  <si>
+    <t>期刊</t>
+  </si>
+  <si>
     <t>学科分类与代码国家标准 GB/T 13745-2009中，二级学科社会心理学（19020）包含哪几个三级学科？</t>
   </si>
   <si>
@@ -2848,9 +3025,6 @@
     <t>学术期刊</t>
   </si>
   <si>
-    <t>报纸</t>
-  </si>
-  <si>
     <t>政府文件</t>
   </si>
   <si>
@@ -2963,9 +3137,6 @@
   </si>
   <si>
     <t>图书馆常见的文献形式有哪些？</t>
-  </si>
-  <si>
-    <t>期刊</t>
   </si>
   <si>
     <t>电子资源</t>
@@ -3917,14 +4088,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3937,7 +4101,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4395,13 +4559,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4410,131 +4577,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4855,3881 +5025,4137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="40.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="5" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="128.25" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" ht="42.75" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="99.75" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="1:6">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" ht="57" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:6">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="42.75" spans="1:6">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:6">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" ht="42.75" spans="1:6">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:6">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="42.75" spans="1:6">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:6">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="28.5" spans="1:6">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="42.75" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" ht="42.75" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" ht="42.75" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" ht="28.5" spans="1:6">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" ht="42.75" spans="1:6">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" ht="42.75" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" ht="99.75" spans="1:6">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="57" ht="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" ht="42.75" spans="1:6">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" ht="42.75" spans="1:6">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" ht="28.5" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" ht="28.5" spans="1:6">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" ht="71.25" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" ht="28.5" spans="1:6">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" ht="28.5" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="72" ht="156.75" spans="1:6">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:6">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" ht="42.75" spans="1:6">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" ht="57" spans="1:6">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="77" ht="28.5" spans="1:6">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" ht="28.5" spans="1:6">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" ht="28.5" spans="1:6">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" ht="28.5" spans="1:6">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="81" ht="28.5" spans="1:6">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="82" ht="57" spans="1:6">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="28.5" spans="1:6">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" ht="28.5" spans="1:6">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" ht="28.5" spans="1:6">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>25500</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
         <v>35000</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>45500</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="3">
         <v>55000</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" ht="28.5" spans="1:6">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="90" ht="71.25" spans="1:6">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" ht="28.5" spans="1:6">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="28.5" spans="1:6">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="94" ht="28.5" spans="1:6">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="57" spans="1:6">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" ht="28.5" spans="1:6">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" ht="57" spans="1:6">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="99" ht="42.75" spans="1:6">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="103" ht="28.5" spans="1:6">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" ht="42.75" spans="1:6">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" ht="28.5" spans="1:6">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="108" ht="42.75" spans="1:6">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" ht="99.75" spans="1:6">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>2005</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
         <v>2010</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="3">
         <v>2015</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="3">
         <v>2020</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110" ht="42.75" spans="1:6">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>7879562</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="112" ht="42.75" spans="1:6">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>996</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>1000</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="3">
         <v>2800</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="3">
         <v>300</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="113" ht="42.75" spans="1:6">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" ht="28.5" spans="1:6">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="116" ht="28.5" spans="1:6">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="117" ht="99.75" spans="1:6">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" ht="42.75" spans="1:6">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="120" ht="28.5" spans="1:6">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <v>861</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="3">
         <v>488</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="3">
         <v>562</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="3">
         <v>551</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="123" ht="28.5" spans="1:6">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="124" ht="28.5" spans="1:6">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="125" ht="71.25" spans="1:6">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" ht="42.75" spans="1:6">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="128" ht="28.5" spans="1:6">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:6">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <v>38222.3</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
         <v>38087.3</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="3">
         <v>21911.5</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="3">
         <v>23659.5</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" ht="42.75" spans="1:6">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" ht="42.75" spans="1:6">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>65</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="3">
         <v>63</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="3">
         <v>64</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="3">
         <v>62</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1" t="s">
+      <c r="D140" s="4"/>
+      <c r="E140" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="143" ht="42.75" spans="1:6">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" ht="42.75" spans="1:6">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>35.6</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="3">
         <v>44.5</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="3">
         <v>56.4</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="3">
         <v>60.5</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>3443000733</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="3">
         <v>3443000723</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="3">
         <v>3443000731</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="3">
         <v>3443000730</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="147" ht="42.75" spans="1:6">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="148" ht="42.75" spans="1:6">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="149" ht="28.5" spans="1:6">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" ht="57" spans="1:6">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="151" ht="28.5" spans="1:6">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="3">
         <v>8226</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="3">
         <v>6622</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="3">
         <v>6604</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="3">
         <v>91425</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="152" ht="85.5" spans="1:6">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" ht="28.5" spans="1:6">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>15000</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="3">
         <v>15500</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="3">
         <v>16000</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="3">
         <v>16500</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="156" ht="42.75" spans="1:6">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="3">
         <v>2006</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="3">
         <v>2007</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="3">
         <v>2008</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="3">
         <v>2009</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" ht="28.5" spans="1:6">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="159" ht="42.75" spans="1:6">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="161" ht="28.5" spans="1:6">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="163" ht="42.75" spans="1:6">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="164" ht="28.5" spans="1:6">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165" ht="42.75" spans="1:6">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="3">
         <v>2014</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="3">
         <v>2015</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="3">
         <v>2016</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="3">
         <v>2017</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="167" ht="42.75" spans="1:6">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="168" ht="99.75" spans="1:6">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="3" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="169" ht="28.5" spans="1:6">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="170" ht="28.5" spans="1:6">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="173" ht="28.5" spans="1:6">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="174" ht="99.75" spans="1:6">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>2005</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="3">
         <v>2010</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="3">
         <v>2015</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="3">
         <v>2020</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="175" ht="42.75" spans="1:6">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="3">
         <v>2010</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="3">
         <v>2013</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="3">
         <v>2011</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="3">
         <v>2012</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" ht="42.75" spans="1:6">
-      <c r="A176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F176" s="1" t="s">
+    <row r="176" ht="57" spans="1:6">
+      <c r="A176" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" ht="42.75" spans="1:6">
+      <c r="A178" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" ht="42.75" spans="1:6">
+      <c r="A179" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" ht="28.5" spans="1:6">
+      <c r="A180" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" s="3">
+        <v>44069</v>
+      </c>
+      <c r="C180" s="3">
+        <v>43587</v>
+      </c>
+      <c r="D180" s="3">
+        <v>44166</v>
+      </c>
+      <c r="E180" s="3">
+        <v>43770</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B181" s="3">
+        <v>9782266290708</v>
+      </c>
+      <c r="C181" s="3">
+        <v>9787530209554</v>
+      </c>
+      <c r="D181" s="3">
+        <v>9781108647533</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" ht="57" spans="1:6">
-      <c r="A177" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F177" s="1" t="s">
+    <row r="183" spans="1:6">
+      <c r="A183" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" ht="28.5" spans="1:6">
+      <c r="A184" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F178" s="1" t="s">
+    <row r="185" ht="42.75" spans="1:6">
+      <c r="A185" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" ht="28.5" spans="1:6">
+      <c r="A186" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" ht="85.5" spans="1:6">
+      <c r="A187" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="179" ht="42.75" spans="1:6">
-      <c r="A179" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="F179" s="1" t="s">
+    <row r="188" ht="28.5" spans="1:6">
+      <c r="A188" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B190" s="3">
+        <v>45374</v>
+      </c>
+      <c r="C190" s="3">
+        <v>45405</v>
+      </c>
+      <c r="D190" s="3">
+        <v>45436</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45458</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" ht="28.5" spans="1:6">
+      <c r="A192" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" ht="28.5" spans="1:6">
+      <c r="A193" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" ht="57" spans="1:6">
+      <c r="A194" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" ht="28.5" spans="1:6">
+      <c r="A195" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" ht="28.5" spans="1:6">
+      <c r="A196" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" ht="42.75" spans="1:6">
-      <c r="A180" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F180" s="1" t="s">
+    <row r="199" ht="28.5" spans="1:6">
+      <c r="A199" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="181" ht="28.5" spans="1:6">
-      <c r="A181" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B181" s="1">
-        <v>44069</v>
-      </c>
-      <c r="C181" s="1">
-        <v>43587</v>
-      </c>
-      <c r="D181" s="1">
-        <v>44166</v>
-      </c>
-      <c r="E181" s="1">
-        <v>43770</v>
-      </c>
-      <c r="F181" s="1" t="s">
+    <row r="200" ht="28.5" spans="1:6">
+      <c r="A200" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" ht="28.5" spans="1:6">
+      <c r="A201" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B182" s="1">
-        <v>9782266290708</v>
-      </c>
-      <c r="C182" s="1">
-        <v>9787530209554</v>
-      </c>
-      <c r="D182" s="1">
-        <v>9781108647533</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F183" s="1" t="s">
+    <row r="203" spans="1:6">
+      <c r="A203" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" ht="28.5" spans="1:6">
+      <c r="A204" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B204" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C204" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D204" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E204" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F206" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" ht="28.5" spans="1:6">
-      <c r="A185" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" ht="42.75" spans="1:6">
-      <c r="A186" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" ht="28.5" spans="1:6">
-      <c r="A187" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" ht="85.5" spans="1:6">
-      <c r="A188" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" ht="28.5" spans="1:6">
-      <c r="A189" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B191" s="1">
-        <v>45374</v>
-      </c>
-      <c r="C191" s="1">
-        <v>45405</v>
-      </c>
-      <c r="D191" s="1">
-        <v>45436</v>
-      </c>
-      <c r="E191" s="1">
-        <v>45458</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" ht="28.5" spans="1:6">
-      <c r="A193" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C146" r:id="rId1" display="https://www.cnipa.gov.cn/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8773,119 +9199,119 @@
     </row>
     <row r="2" ht="28.5" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>797</v>
+        <v>856</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>798</v>
+        <v>857</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>799</v>
+        <v>858</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>800</v>
+        <v>859</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>801</v>
+        <v>860</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>803</v>
+        <v>862</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>805</v>
+        <v>864</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>806</v>
+        <v>865</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>807</v>
+        <v>866</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>809</v>
+        <v>868</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>811</v>
+        <v>870</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>812</v>
+        <v>871</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>813</v>
+        <v>872</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>814</v>
+        <v>873</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>816</v>
+        <v>875</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>817</v>
+        <v>876</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>820</v>
+        <v>879</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>821</v>
+        <v>880</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>822</v>
+        <v>881</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>823</v>
+        <v>882</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>824</v>
+        <v>883</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>826</v>
+        <v>885</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>827</v>
+        <v>886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>828</v>
+        <v>887</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>829</v>
+        <v>888</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>830</v>
+        <v>889</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>402</v>
@@ -8893,7 +9319,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>454</v>
@@ -8908,58 +9334,58 @@
         <v>457</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>832</v>
+        <v>891</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>833</v>
+        <v>892</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>834</v>
+        <v>893</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>835</v>
+        <v>894</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>837</v>
+        <v>896</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>839</v>
+        <v>898</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>840</v>
+        <v>899</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>843</v>
+        <v>902</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>844</v>
+        <v>903</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>845</v>
+        <v>904</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>579</v>
@@ -8968,87 +9394,87 @@
         <v>580</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>847</v>
+        <v>906</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>848</v>
+        <v>907</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>849</v>
+        <v>908</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>850</v>
+        <v>909</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>851</v>
+        <v>910</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>852</v>
+        <v>911</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>853</v>
+        <v>912</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>854</v>
+        <v>913</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>855</v>
+        <v>914</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>856</v>
+        <v>915</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>859</v>
+        <v>918</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>861</v>
+        <v>920</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>865</v>
+        <v>924</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>866</v>
+        <v>925</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>867</v>
+        <v>926</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:6">
@@ -9062,7 +9488,7 @@
         <v>218</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>220</v>
@@ -9073,82 +9499,82 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>869</v>
+        <v>928</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>870</v>
+        <v>929</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>872</v>
+        <v>931</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>873</v>
+        <v>932</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>875</v>
+        <v>934</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>876</v>
+        <v>935</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>877</v>
+        <v>936</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>878</v>
+        <v>937</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>879</v>
+        <v>938</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>880</v>
+        <v>939</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>881</v>
+        <v>940</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>882</v>
+        <v>941</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>883</v>
+        <v>942</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>885</v>
+        <v>944</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>886</v>
+        <v>945</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>887</v>
+        <v>946</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>888</v>
+        <v>947</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:6">
@@ -9165,7 +9591,7 @@
         <v>266</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>402</v>
@@ -9173,179 +9599,179 @@
     </row>
     <row r="22" ht="28.5" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>890</v>
+        <v>949</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>891</v>
+        <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>892</v>
+        <v>951</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>893</v>
+        <v>952</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>894</v>
+        <v>953</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>895</v>
+        <v>954</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>898</v>
+        <v>957</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>899</v>
+        <v>958</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>901</v>
+        <v>960</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>902</v>
+        <v>961</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>903</v>
+        <v>962</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>905</v>
+        <v>964</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>906</v>
+        <v>965</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>907</v>
+        <v>966</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>909</v>
+        <v>968</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>910</v>
+        <v>969</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>911</v>
+        <v>970</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>912</v>
+        <v>971</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>913</v>
+        <v>972</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>914</v>
+        <v>973</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>916</v>
+        <v>975</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>917</v>
+        <v>976</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>918</v>
+        <v>977</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>919</v>
+        <v>978</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>920</v>
+        <v>979</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>921</v>
+        <v>980</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>922</v>
+        <v>981</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>923</v>
+        <v>982</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>924</v>
+        <v>983</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>925</v>
+        <v>984</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>926</v>
+        <v>985</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>928</v>
+        <v>987</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>930</v>
+        <v>989</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>931</v>
+        <v>990</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>932</v>
+        <v>991</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>933</v>
+        <v>992</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>934</v>
+        <v>993</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>935</v>
+        <v>994</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>402</v>
@@ -9353,259 +9779,259 @@
     </row>
     <row r="31" ht="28.5" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>936</v>
+        <v>995</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>937</v>
+        <v>996</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>938</v>
+        <v>853</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>939</v>
+        <v>997</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>940</v>
+        <v>998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>941</v>
+        <v>999</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>942</v>
+        <v>1000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>943</v>
+        <v>1001</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>945</v>
+        <v>1003</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>946</v>
+        <v>1004</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>947</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>948</v>
+        <v>1006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>949</v>
+        <v>1007</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>950</v>
+        <v>1008</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>951</v>
+        <v>1009</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>952</v>
+        <v>1010</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>953</v>
+        <v>1011</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>954</v>
+        <v>1012</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>955</v>
+        <v>1013</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>956</v>
+        <v>1014</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>957</v>
+        <v>1015</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>958</v>
+        <v>1016</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>959</v>
+        <v>1017</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>960</v>
+        <v>1018</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>961</v>
+        <v>1019</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>962</v>
+        <v>1020</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>963</v>
+        <v>1021</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>964</v>
+        <v>1022</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>965</v>
+        <v>1023</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>966</v>
+        <v>1024</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>967</v>
+        <v>1025</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>968</v>
+        <v>1026</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>969</v>
+        <v>1027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>970</v>
+        <v>1028</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>971</v>
+        <v>1029</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>972</v>
+        <v>1030</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>973</v>
+        <v>1031</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>974</v>
+        <v>1032</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>975</v>
+        <v>1033</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>976</v>
+        <v>1034</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>977</v>
+        <v>855</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>938</v>
+        <v>853</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>978</v>
+        <v>1035</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>979</v>
+        <v>1036</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>980</v>
+        <v>1037</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>981</v>
+        <v>1038</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>982</v>
+        <v>1039</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" ht="28.5" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>984</v>
+        <v>1041</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>985</v>
+        <v>1042</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>986</v>
+        <v>1043</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>987</v>
+        <v>1044</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>988</v>
+        <v>1045</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>989</v>
+        <v>1046</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>938</v>
+        <v>853</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>977</v>
+        <v>855</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>990</v>
+        <v>1047</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>991</v>
+        <v>1048</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>992</v>
+        <v>1049</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>993</v>
+        <v>1050</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>994</v>
+        <v>1051</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>402</v>
@@ -9613,47 +10039,47 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>995</v>
+        <v>1052</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>996</v>
+        <v>1053</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>997</v>
+        <v>1054</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>998</v>
+        <v>1055</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>999</v>
+        <v>1056</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>1000</v>
+        <v>1057</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1001</v>
+        <v>1058</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1002</v>
+        <v>1059</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1003</v>
+        <v>1060</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1004</v>
+        <v>1061</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>1005</v>
+        <v>1062</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>392</v>
@@ -9673,16 +10099,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>1006</v>
+        <v>1063</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1007</v>
+        <v>1064</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1008</v>
+        <v>1065</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1009</v>
+        <v>1066</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>204</v>
@@ -9693,579 +10119,579 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>1010</v>
+        <v>1067</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1011</v>
+        <v>1068</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1012</v>
+        <v>1069</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1013</v>
+        <v>1070</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1014</v>
+        <v>1071</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" ht="28.5" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>1015</v>
+        <v>1072</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1016</v>
+        <v>1073</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1017</v>
+        <v>1074</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1018</v>
+        <v>1075</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1019</v>
+        <v>1076</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>962</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="51" ht="28.5" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>1024</v>
+        <v>1081</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1025</v>
+        <v>1082</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1026</v>
+        <v>1083</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1027</v>
+        <v>1084</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1028</v>
+        <v>1085</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" ht="28.5" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>1029</v>
+        <v>1086</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1030</v>
+        <v>1087</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1031</v>
+        <v>1088</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1032</v>
+        <v>1089</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1033</v>
+        <v>1090</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>1034</v>
+        <v>1091</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1035</v>
+        <v>1092</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1036</v>
+        <v>1093</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1037</v>
+        <v>1094</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1038</v>
+        <v>1095</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>1039</v>
+        <v>1096</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1040</v>
+        <v>1097</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1041</v>
+        <v>1098</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1042</v>
+        <v>1099</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1043</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>1044</v>
+        <v>1101</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1045</v>
+        <v>1102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1046</v>
+        <v>1103</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1047</v>
+        <v>1104</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1048</v>
+        <v>1105</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>1049</v>
+        <v>1106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1050</v>
+        <v>1107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1051</v>
+        <v>1108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1052</v>
+        <v>1109</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1053</v>
+        <v>1110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>1054</v>
+        <v>1111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1055</v>
+        <v>1112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1056</v>
+        <v>1113</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1057</v>
+        <v>1114</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1058</v>
+        <v>1115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>1059</v>
+        <v>1116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1061</v>
+        <v>1118</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1062</v>
+        <v>1119</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1063</v>
+        <v>1120</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1065</v>
+        <v>1122</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1066</v>
+        <v>1123</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1067</v>
+        <v>1124</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1068</v>
+        <v>1125</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>1069</v>
+        <v>1126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1070</v>
+        <v>1127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1071</v>
+        <v>1128</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1072</v>
+        <v>1129</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1073</v>
+        <v>1130</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>1074</v>
+        <v>1131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1075</v>
+        <v>1132</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1076</v>
+        <v>1133</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1077</v>
+        <v>1134</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1078</v>
+        <v>1135</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>1079</v>
+        <v>1136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1080</v>
+        <v>1137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1081</v>
+        <v>1138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1082</v>
+        <v>1139</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1083</v>
+        <v>1140</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>1084</v>
+        <v>1141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1085</v>
+        <v>1142</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1086</v>
+        <v>1143</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1087</v>
+        <v>1144</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1088</v>
+        <v>1145</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="64" ht="42.75" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>1089</v>
+        <v>1146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1090</v>
+        <v>1147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1091</v>
+        <v>1148</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1092</v>
+        <v>1149</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1093</v>
+        <v>1150</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>1094</v>
+        <v>1151</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1095</v>
+        <v>1152</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1096</v>
+        <v>1153</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1097</v>
+        <v>1154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1098</v>
+        <v>1155</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>1099</v>
+        <v>1156</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1100</v>
+        <v>1157</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1101</v>
+        <v>1158</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1102</v>
+        <v>1159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1103</v>
+        <v>1160</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>1104</v>
+        <v>1161</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1105</v>
+        <v>1162</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1106</v>
+        <v>1163</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1107</v>
+        <v>1164</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1108</v>
+        <v>1165</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>915</v>
+        <v>974</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>1109</v>
+        <v>1166</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1110</v>
+        <v>1167</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1111</v>
+        <v>1168</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1112</v>
+        <v>1169</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1113</v>
+        <v>1170</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="69" ht="28.5" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>1114</v>
+        <v>1171</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1115</v>
+        <v>1172</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1116</v>
+        <v>1173</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1117</v>
+        <v>1174</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>1118</v>
+        <v>1175</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1119</v>
+        <v>1176</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1120</v>
+        <v>1177</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1121</v>
+        <v>1178</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1122</v>
+        <v>1179</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" ht="28.5" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>1123</v>
+        <v>1180</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1124</v>
+        <v>1181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1125</v>
+        <v>1182</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1126</v>
+        <v>1183</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1127</v>
+        <v>1184</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>842</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" ht="28.5" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>1128</v>
+        <v>1185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1129</v>
+        <v>1186</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1130</v>
+        <v>1187</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1131</v>
+        <v>1188</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1132</v>
+        <v>1189</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>1133</v>
+        <v>1190</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1134</v>
+        <v>1191</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1135</v>
+        <v>1192</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1136</v>
+        <v>1193</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1137</v>
+        <v>1194</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>1138</v>
+        <v>1195</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1140</v>
+        <v>1197</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1141</v>
+        <v>1198</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1142</v>
+        <v>1199</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>1143</v>
+        <v>1200</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1144</v>
+        <v>1201</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1145</v>
+        <v>1202</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1146</v>
+        <v>1203</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1144</v>
+        <v>1201</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="76" ht="28.5" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>1147</v>
+        <v>1204</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1148</v>
+        <v>1205</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1149</v>
+        <v>1206</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1150</v>
+        <v>1207</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1151</v>
+        <v>1208</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>402</v>
@@ -10273,42 +10699,42 @@
     </row>
     <row r="77" ht="57" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>1152</v>
+        <v>1209</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1153</v>
+        <v>1210</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1154</v>
+        <v>1211</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1155</v>
+        <v>1212</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1156</v>
+        <v>1213</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>1157</v>
+        <v>1214</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1158</v>
+        <v>1215</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1159</v>
+        <v>1216</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1160</v>
+        <v>1217</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1161</v>
+        <v>1218</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>846</v>
+        <v>905</v>
       </c>
     </row>
     <row r="79" ht="28.5" spans="1:6">
@@ -10316,79 +10742,79 @@
         <v>546</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1162</v>
+        <v>1219</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1163</v>
+        <v>1220</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1164</v>
+        <v>1221</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1165</v>
+        <v>1222</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>808</v>
+        <v>867</v>
       </c>
     </row>
     <row r="80" ht="57" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>1166</v>
+        <v>1223</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1167</v>
+        <v>1224</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1168</v>
+        <v>1225</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1169</v>
+        <v>1226</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1170</v>
+        <v>1227</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1171</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>1172</v>
+        <v>1229</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1173</v>
+        <v>1230</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1174</v>
+        <v>1231</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1175</v>
+        <v>1232</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1176</v>
+        <v>1233</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>802</v>
+        <v>861</v>
       </c>
     </row>
     <row r="82" ht="28.5" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>1177</v>
+        <v>1234</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1178</v>
+        <v>1235</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1179</v>
+        <v>1236</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1180</v>
+        <v>1237</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1181</v>
+        <v>1238</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>825</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -10422,898 +10848,898 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1182</v>
+        <v>1239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>1184</v>
+        <v>1241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>1186</v>
+        <v>1243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1187</v>
+        <v>1244</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>1188</v>
+        <v>1245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>1189</v>
+        <v>1246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>1190</v>
+        <v>1247</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>1191</v>
+        <v>1248</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>1192</v>
+        <v>1249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>1193</v>
+        <v>1250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>1194</v>
+        <v>1251</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>1195</v>
+        <v>1252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>1196</v>
+        <v>1253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>1197</v>
+        <v>1254</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>1198</v>
+        <v>1255</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1199</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>1200</v>
+        <v>1257</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>1201</v>
+        <v>1258</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1202</v>
+        <v>1259</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1203</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="20" ht="42.75" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>1204</v>
+        <v>1261</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>1205</v>
+        <v>1262</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>1206</v>
+        <v>1263</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>1207</v>
+        <v>1264</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>1208</v>
+        <v>1265</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>1209</v>
+        <v>1266</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>1210</v>
+        <v>1267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1199</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>1211</v>
+        <v>1268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>1212</v>
+        <v>1269</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>1213</v>
+        <v>1270</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>1214</v>
+        <v>1271</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>1215</v>
+        <v>1272</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>1216</v>
+        <v>1273</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>1217</v>
+        <v>1274</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>1218</v>
+        <v>1275</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>1219</v>
+        <v>1276</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>1220</v>
+        <v>1277</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>1221</v>
+        <v>1278</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>1222</v>
+        <v>1279</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>1223</v>
+        <v>1280</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>1224</v>
+        <v>1281</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>1225</v>
+        <v>1282</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>1226</v>
+        <v>1283</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>1227</v>
+        <v>1284</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>1228</v>
+        <v>1285</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>1229</v>
+        <v>1286</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>1230</v>
+        <v>1287</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>1231</v>
+        <v>1288</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>1232</v>
+        <v>1289</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>1233</v>
+        <v>1290</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>1234</v>
+        <v>1291</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="51" ht="28.5" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>1235</v>
+        <v>1292</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>1236</v>
+        <v>1293</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>1237</v>
+        <v>1294</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>1238</v>
+        <v>1295</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>1239</v>
+        <v>1296</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>1240</v>
+        <v>1297</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>1241</v>
+        <v>1298</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>1242</v>
+        <v>1299</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>1243</v>
+        <v>1300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>1244</v>
+        <v>1301</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>1245</v>
+        <v>1302</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>1246</v>
+        <v>1303</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="63" ht="28.5" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>1184</v>
+        <v>1241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>1198</v>
+        <v>1255</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>1247</v>
+        <v>1304</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>1202</v>
+        <v>1259</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>1205</v>
+        <v>1262</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>1206</v>
+        <v>1263</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>1210</v>
+        <v>1267</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>1248</v>
+        <v>1305</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>1245</v>
+        <v>1302</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>1249</v>
+        <v>1306</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>1250</v>
+        <v>1307</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>1251</v>
+        <v>1308</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>1252</v>
+        <v>1309</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>1253</v>
+        <v>1310</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>1254</v>
+        <v>1311</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>1255</v>
+        <v>1312</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>1256</v>
+        <v>1313</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>1257</v>
+        <v>1314</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>1258</v>
+        <v>1315</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>1260</v>
+        <v>1317</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="84" ht="28.5" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>1261</v>
+        <v>1318</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="85" ht="28.5" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>1262</v>
+        <v>1319</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>1263</v>
+        <v>1320</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>1264</v>
+        <v>1321</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>1265</v>
+        <v>1322</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>1266</v>
+        <v>1323</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>1267</v>
+        <v>1324</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>1268</v>
+        <v>1325</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>1269</v>
+        <v>1326</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>1270</v>
+        <v>1327</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>1271</v>
+        <v>1328</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="95" ht="28.5" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>1272</v>
+        <v>1329</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="96" ht="42.75" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>1273</v>
+        <v>1330</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="97" ht="28.5" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>1274</v>
+        <v>1331</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>1275</v>
+        <v>1332</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>1276</v>
+        <v>1333</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>1277</v>
+        <v>1334</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>1278</v>
+        <v>1335</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>1279</v>
+        <v>1336</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>1280</v>
+        <v>1337</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="104" ht="28.5" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>1281</v>
+        <v>1338</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>1282</v>
+        <v>1339</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>1283</v>
+        <v>1340</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="107" ht="28.5" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>1284</v>
+        <v>1341</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>1286</v>
+        <v>1343</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>1287</v>
+        <v>1344</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>1288</v>
+        <v>1345</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1183</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>1289</v>
+        <v>1346</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>1290</v>
+        <v>1347</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1185</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
